--- a/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120DD5E9-768E-406C-8915-AF28457267FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,25 +26,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="491">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1501,12 +1494,27 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>3/6,7/2023-SL</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>3/1,2,3 - SL</t>
+  </si>
+  <si>
+    <t>2/21,28 - SL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1905,7 +1913,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1924,6 +1932,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1960,21 +1983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2423,7 +2431,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2474,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2538,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2598,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2664,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2727,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2825,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2884,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2949,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2992,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3067,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3253,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3319,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3377,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3443,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3499,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3574,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3617,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3683,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,7 +3739,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3837,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,7 +3900,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3958,26 +3966,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K719"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K719" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3989,13 +3997,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4004,14 +4012,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4315,7 +4323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4325,7 +4333,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4333,95 +4341,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K719"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A699" activePane="bottomLeft"/>
-      <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="B710" sqref="B710"/>
+      <pane ySplit="4428" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="F4" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="71"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4429,7 +4441,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4442,24 +4454,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4518,7 +4530,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4540,7 +4552,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4584,7 +4596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -4606,7 +4618,7 @@
         <v>35797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -4628,7 +4640,7 @@
         <v>35804</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4657,7 +4669,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4679,7 +4691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -4696,7 +4708,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>35855</v>
@@ -4723,7 +4735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -4740,7 +4752,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>35886</v>
@@ -4765,7 +4777,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>59</v>
@@ -4784,7 +4796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35916</v>
@@ -4809,7 +4821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -4828,7 +4840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4845,7 +4857,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A22,1)</f>
         <v>35947</v>
@@ -4872,7 +4884,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>49</v>
@@ -4891,7 +4903,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>49</v>
@@ -4910,7 +4922,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -4929,7 +4941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -4946,7 +4958,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A25,1)</f>
         <v>35977</v>
@@ -4973,7 +4985,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>63</v>
@@ -4992,7 +5004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>49</v>
@@ -5011,7 +5023,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>68</v>
@@ -5028,7 +5040,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36008</v>
@@ -5055,7 +5067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -5076,7 +5088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -5095,7 +5107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>74</v>
@@ -5112,7 +5124,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A34,1)</f>
         <v>36039</v>
@@ -5139,7 +5151,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -5158,7 +5170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -5175,7 +5187,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>36069</v>
@@ -5202,7 +5214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>72</v>
@@ -5221,7 +5233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -5238,7 +5250,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>36100</v>
@@ -5265,7 +5277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -5282,7 +5294,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" ref="A46" si="0">EDATE(A44,1)</f>
         <v>36130</v>
@@ -5309,7 +5321,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>63</v>
@@ -5331,7 +5343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -5353,7 +5365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -5371,7 +5383,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A46,1)</f>
         <v>36161</v>
@@ -5398,7 +5410,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>72</v>
@@ -5417,7 +5429,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -5434,7 +5446,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -5461,7 +5473,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5478,7 +5490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -5495,7 +5507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -5514,7 +5526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -5531,7 +5543,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A53,1)</f>
         <v>36220</v>
@@ -5558,7 +5570,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>49</v>
@@ -5577,7 +5589,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>50</v>
@@ -5594,7 +5606,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -5613,7 +5625,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>92</v>
@@ -5630,7 +5642,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5655,7 +5667,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -5674,7 +5686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>49</v>
@@ -5693,7 +5705,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36281</v>
@@ -5720,7 +5732,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -5739,7 +5751,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>49</v>
@@ -5758,7 +5770,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5777,7 +5789,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>148</v>
@@ -5794,7 +5806,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A66,1)</f>
         <v>36312</v>
@@ -5821,7 +5833,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -5840,7 +5852,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -5859,7 +5871,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5876,7 +5888,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A71,1)</f>
         <v>36342</v>
@@ -5903,7 +5915,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>49</v>
@@ -5922,7 +5934,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -5941,7 +5953,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36373</v>
@@ -5968,7 +5980,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>99</v>
@@ -5985,7 +5997,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36404</v>
@@ -6014,7 +6026,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -6033,7 +6045,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -6052,7 +6064,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -6071,7 +6083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>49</v>
@@ -6090,7 +6102,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>72</v>
@@ -6109,7 +6121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -6128,7 +6140,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>102</v>
@@ -6145,7 +6157,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -6172,7 +6184,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -6191,7 +6203,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>49</v>
@@ -6210,7 +6222,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>74</v>
@@ -6227,7 +6239,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A88,1)</f>
         <v>36465</v>
@@ -6256,7 +6268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6275,7 +6287,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -6292,7 +6304,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95" si="1">EDATE(A92,1)</f>
         <v>36495</v>
@@ -6319,7 +6331,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -6338,7 +6350,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -6359,7 +6371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6378,7 +6390,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6397,7 +6409,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>109</v>
@@ -6414,7 +6426,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>98</v>
       </c>
@@ -6432,7 +6444,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A95,1)</f>
         <v>36526</v>
@@ -6459,7 +6471,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -6480,7 +6492,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6500,7 +6512,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -6525,7 +6537,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>63</v>
@@ -6544,7 +6556,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>36586</v>
@@ -6571,7 +6583,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>49</v>
@@ -6590,7 +6602,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6609,7 +6621,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>49</v>
@@ -6628,7 +6640,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6645,7 +6657,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>36617</v>
@@ -6672,7 +6684,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -6691,7 +6703,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -6708,7 +6720,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36647</v>
@@ -6737,7 +6749,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -6754,7 +6766,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6771,7 +6783,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>72</v>
@@ -6790,7 +6802,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36678</v>
@@ -6815,7 +6827,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6834,7 +6846,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>63</v>
@@ -6856,7 +6868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>52</v>
@@ -6875,7 +6887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A119,1)</f>
         <v>36708</v>
@@ -6900,7 +6912,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -6919,7 +6931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>36739</v>
@@ -6944,7 +6956,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>49</v>
@@ -6963,7 +6975,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>36770</v>
@@ -6988,7 +7000,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>49</v>
@@ -7007,7 +7019,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>49</v>
@@ -7026,7 +7038,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36800</v>
@@ -7053,7 +7065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>63</v>
@@ -7072,7 +7084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>49</v>
@@ -7091,7 +7103,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>128</v>
@@ -7108,7 +7120,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" ref="A134" si="2">EDATE(A130,1)</f>
         <v>36831</v>
@@ -7135,7 +7147,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>51</v>
@@ -7156,7 +7168,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -7175,7 +7187,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>129</v>
@@ -7192,7 +7204,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>36861</v>
@@ -7217,7 +7229,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -7239,7 +7251,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>132</v>
       </c>
@@ -7257,7 +7269,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>36892</v>
@@ -7286,7 +7298,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>46</v>
@@ -7303,7 +7315,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -7320,7 +7332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>36923</v>
@@ -7349,7 +7361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>51</v>
@@ -7370,7 +7382,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -7389,7 +7401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>51</v>
@@ -7408,7 +7420,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>36951</v>
@@ -7435,7 +7447,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>51</v>
@@ -7456,7 +7468,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>103</v>
@@ -7475,7 +7487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>36982</v>
@@ -7496,7 +7508,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152" si="3">EDATE(A151,1)</f>
         <v>37012</v>
@@ -7523,7 +7535,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7542,7 +7554,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37043</v>
@@ -7569,7 +7581,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -7590,7 +7602,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37073</v>
@@ -7619,7 +7631,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>51</v>
@@ -7638,7 +7650,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7657,7 +7669,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>37104</v>
@@ -7684,7 +7696,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -7701,7 +7713,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37135</v>
@@ -7728,7 +7740,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7749,7 +7761,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7768,7 +7780,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>37165</v>
@@ -7795,7 +7807,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>51</v>
@@ -7816,7 +7828,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>140</v>
@@ -7833,7 +7845,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37196</v>
@@ -7860,7 +7872,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -7879,7 +7891,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7900,7 +7912,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>87</v>
@@ -7917,7 +7929,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A167,1)</f>
         <v>37226</v>
@@ -7944,7 +7956,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -7963,7 +7975,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -7984,7 +7996,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -8001,7 +8013,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>133</v>
       </c>
@@ -8019,7 +8031,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A171,1)</f>
         <v>37257</v>
@@ -8044,7 +8056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -8063,7 +8075,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>51</v>
@@ -8082,7 +8094,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -8111,7 +8123,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -8128,7 +8140,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -8155,7 +8167,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8184,7 +8196,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -8203,7 +8215,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>73</v>
@@ -8222,7 +8234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>147</v>
@@ -8239,7 +8251,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37377</v>
@@ -8263,7 +8275,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -8284,7 +8296,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -8301,7 +8313,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>37408</v>
@@ -8328,7 +8340,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>108</v>
@@ -8349,7 +8361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>151</v>
@@ -8366,7 +8378,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>37438</v>
@@ -8391,7 +8403,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>37469</v>
@@ -8418,7 +8430,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8435,7 +8447,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37500</v>
@@ -8462,7 +8474,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>49</v>
@@ -8481,7 +8493,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>37530</v>
@@ -8508,7 +8520,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -8527,7 +8539,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>155</v>
@@ -8544,7 +8556,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" ref="A200" si="4">EDATE(A197,1)</f>
         <v>37561</v>
@@ -8573,7 +8585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8590,7 +8602,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>37591</v>
@@ -8617,7 +8629,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>158</v>
@@ -8634,7 +8646,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="49"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -8652,7 +8664,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>37622</v>
@@ -8677,7 +8689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>50</v>
@@ -8696,7 +8708,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8713,7 +8725,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>49</v>
@@ -8732,7 +8744,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8753,7 +8765,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -8772,7 +8784,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -8789,7 +8801,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>103</v>
@@ -8808,7 +8820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>162</v>
@@ -8825,7 +8837,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A205,1)</f>
         <v>37653</v>
@@ -8850,7 +8862,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" ref="A215:A228" si="5">EDATE(A214,1)</f>
         <v>37681</v>
@@ -8877,7 +8889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>103</v>
@@ -8898,7 +8910,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>37712</v>
@@ -8925,7 +8937,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>72</v>
@@ -8944,7 +8956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>166</v>
@@ -8961,7 +8973,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>37742</v>
@@ -8988,7 +9000,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>51</v>
@@ -9009,7 +9021,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>167</v>
@@ -9026,7 +9038,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>37773</v>
@@ -9051,7 +9063,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -9076,7 +9088,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>72</v>
@@ -9095,7 +9107,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>63</v>
@@ -9114,7 +9126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>37834</v>
@@ -9139,7 +9151,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -9168,7 +9180,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -9187,7 +9199,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -9208,7 +9220,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -9227,7 +9239,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>173</v>
@@ -9244,7 +9256,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A228,1)</f>
         <v>37895</v>
@@ -9273,7 +9285,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>174</v>
@@ -9290,7 +9302,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>37926</v>
@@ -9315,7 +9327,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>37956</v>
@@ -9342,7 +9354,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>49</v>
@@ -9364,7 +9376,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>176</v>
@@ -9384,7 +9396,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>177</v>
       </c>
@@ -9402,7 +9414,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>37987</v>
@@ -9429,7 +9441,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -9452,7 +9464,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>179</v>
@@ -9469,7 +9481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>180</v>
@@ -9486,7 +9498,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A240,1)</f>
         <v>38018</v>
@@ -9511,7 +9523,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>59</v>
@@ -9530,7 +9542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>38047</v>
@@ -9555,7 +9567,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>187</v>
@@ -9574,7 +9586,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>38078</v>
@@ -9599,7 +9611,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>59</v>
@@ -9618,7 +9630,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>38108</v>
@@ -9643,7 +9655,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>38139</v>
@@ -9670,7 +9682,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9689,7 +9701,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>63</v>
@@ -9708,7 +9720,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>63</v>
@@ -9727,7 +9739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>72</v>
@@ -9746,7 +9758,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>192</v>
@@ -9763,7 +9775,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A251,1)</f>
         <v>38169</v>
@@ -9784,7 +9796,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A260" si="6">EDATE(A257,1)</f>
         <v>38200</v>
@@ -9809,7 +9821,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -9834,7 +9846,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -9861,7 +9873,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9880,7 +9892,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>195</v>
@@ -9897,7 +9909,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>38292</v>
@@ -9922,7 +9934,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>38322</v>
@@ -9949,7 +9961,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>199</v>
@@ -9969,7 +9981,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>200</v>
       </c>
@@ -9987,7 +9999,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>38353</v>
@@ -10014,7 +10026,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>112</v>
@@ -10031,7 +10043,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -10048,7 +10060,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>203</v>
@@ -10065,7 +10077,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A267,1)</f>
         <v>38384</v>
@@ -10090,7 +10102,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A283" si="7">EDATE(A271,1)</f>
         <v>38412</v>
@@ -10115,7 +10127,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -10140,7 +10152,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -10165,7 +10177,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -10190,7 +10202,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -10215,7 +10227,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -10240,7 +10252,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>52</v>
@@ -10259,7 +10271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>38596</v>
@@ -10286,7 +10298,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>211</v>
@@ -10303,7 +10315,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>72</v>
@@ -10322,7 +10334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>38626</v>
@@ -10347,7 +10359,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -10374,7 +10386,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>213</v>
@@ -10391,7 +10403,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>38687</v>
@@ -10416,7 +10428,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="48" t="s">
         <v>216</v>
       </c>
@@ -10434,7 +10446,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>38718</v>
@@ -10461,7 +10473,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>179</v>
@@ -10478,7 +10490,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -10497,7 +10509,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>219</v>
@@ -10514,7 +10526,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="49"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A287,1)</f>
         <v>38749</v>
@@ -10541,7 +10553,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>220</v>
@@ -10558,7 +10570,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38777</v>
@@ -10585,7 +10597,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>72</v>
@@ -10604,7 +10616,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>222</v>
@@ -10621,7 +10633,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>63</v>
@@ -10640,7 +10652,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>72</v>
@@ -10661,7 +10673,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A293,1)</f>
         <v>38808</v>
@@ -10688,7 +10700,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>224</v>
@@ -10705,7 +10717,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>38838</v>
@@ -10734,7 +10746,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10751,7 +10763,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>227</v>
@@ -10768,7 +10780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>38869</v>
@@ -10793,7 +10805,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="8">EDATE(A303,1)</f>
         <v>38899</v>
@@ -10820,7 +10832,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>230</v>
@@ -10837,7 +10849,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>38930</v>
@@ -10862,7 +10874,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -10887,7 +10899,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10912,7 +10924,7 @@
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10937,7 +10949,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>39052</v>
@@ -10962,7 +10974,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>217</v>
       </c>
@@ -10980,7 +10992,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39083</v>
@@ -11007,7 +11019,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>49</v>
@@ -11029,7 +11041,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -11049,7 +11061,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>237</v>
@@ -11069,7 +11081,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>39114</v>
@@ -11094,7 +11106,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A336" si="9">EDATE(A316,1)</f>
         <v>39142</v>
@@ -11119,7 +11131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>49</v>
@@ -11141,7 +11153,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -11161,7 +11173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>72</v>
@@ -11183,7 +11195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>241</v>
@@ -11200,7 +11212,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>39173</v>
@@ -11227,7 +11239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -11248,7 +11260,7 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>243</v>
@@ -11265,7 +11277,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39203</v>
@@ -11290,7 +11302,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -11315,7 +11327,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>103</v>
@@ -11336,7 +11348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11353,7 +11365,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>39264</v>
@@ -11378,7 +11390,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11397,7 +11409,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>39295</v>
@@ -11424,7 +11436,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11441,7 +11453,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>39326</v>
@@ -11466,7 +11478,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -11491,7 +11503,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>39387</v>
@@ -11516,7 +11528,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11541,7 +11553,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>253</v>
       </c>
@@ -11559,7 +11571,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39448</v>
@@ -11584,7 +11596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>39479</v>
@@ -11609,7 +11621,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>257</v>
@@ -11626,7 +11638,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>39508</v>
@@ -11651,7 +11663,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A356" si="10">EDATE(A341,1)</f>
         <v>39539</v>
@@ -11676,7 +11688,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -11703,7 +11715,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>72</v>
@@ -11722,7 +11734,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>63</v>
@@ -11741,7 +11753,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>263</v>
@@ -11758,7 +11770,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A343,1)</f>
         <v>39600</v>
@@ -11785,7 +11797,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>49</v>
@@ -11804,7 +11816,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>265</v>
@@ -11821,7 +11833,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>39630</v>
@@ -11846,7 +11858,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>266</v>
@@ -11863,7 +11875,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>39661</v>
@@ -11888,7 +11900,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>268</v>
@@ -11905,7 +11917,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>39692</v>
@@ -11930,7 +11942,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -11955,7 +11967,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11982,7 +11994,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12001,7 +12013,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>72</v>
@@ -12020,7 +12032,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>72</v>
@@ -12039,7 +12051,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>272</v>
@@ -12056,7 +12068,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A356,1)</f>
         <v>39783</v>
@@ -12081,7 +12093,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="48" t="s">
         <v>254</v>
       </c>
@@ -12099,7 +12111,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>39814</v>
@@ -12126,7 +12138,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>46</v>
@@ -12143,7 +12155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>275</v>
@@ -12160,7 +12172,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12187,7 +12199,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12206,7 +12218,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -12223,7 +12235,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>277</v>
@@ -12240,7 +12252,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>39873</v>
@@ -12265,7 +12277,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A390" si="11">EDATE(A370,1)</f>
         <v>39904</v>
@@ -12292,7 +12304,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12311,7 +12323,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12328,7 +12340,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>39934</v>
@@ -12353,7 +12365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12370,7 +12382,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>39965</v>
@@ -12397,7 +12409,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>72</v>
@@ -12416,7 +12428,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>284</v>
@@ -12433,7 +12445,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>39995</v>
@@ -12458,7 +12470,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -12483,7 +12495,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -12510,7 +12522,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>287</v>
@@ -12527,7 +12539,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40087</v>
@@ -12554,7 +12566,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -12573,7 +12585,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -12592,7 +12604,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>103</v>
@@ -12613,7 +12625,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>46</v>
@@ -12630,7 +12642,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>289</v>
@@ -12647,7 +12659,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A383,1)</f>
         <v>40118</v>
@@ -12672,7 +12684,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -12701,7 +12713,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>293</v>
@@ -12718,7 +12730,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>274</v>
       </c>
@@ -12736,7 +12748,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>40179</v>
@@ -12761,7 +12773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>295</v>
@@ -12778,7 +12790,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>40210</v>
@@ -12805,7 +12817,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>49</v>
@@ -12827,7 +12839,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>46</v>
@@ -12844,7 +12856,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>111</v>
@@ -12861,7 +12873,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40238</v>
@@ -12888,7 +12900,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>72</v>
@@ -12907,7 +12919,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>297</v>
@@ -12924,7 +12936,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>40269</v>
@@ -12949,7 +12961,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A410" si="12">EDATE(A402,1)</f>
         <v>40299</v>
@@ -12974,7 +12986,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -12993,7 +13005,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>40330</v>
@@ -13018,7 +13030,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -13043,7 +13055,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -13070,7 +13082,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>302</v>
@@ -13087,7 +13099,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>40422</v>
@@ -13112,7 +13124,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -13137,7 +13149,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40483</v>
@@ -13164,7 +13176,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>49</v>
@@ -13183,7 +13195,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>49</v>
@@ -13202,7 +13214,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>305</v>
@@ -13219,7 +13231,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>40513</v>
@@ -13246,7 +13258,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>307</v>
@@ -13266,7 +13278,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>308</v>
       </c>
@@ -13284,7 +13296,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>40544</v>
@@ -13311,7 +13323,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>310</v>
@@ -13328,7 +13340,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>40575</v>
@@ -13353,7 +13365,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A435" si="13">EDATE(A420,1)</f>
         <v>40603</v>
@@ -13378,7 +13390,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -13397,7 +13409,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>72</v>
@@ -13416,7 +13428,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>312</v>
@@ -13433,7 +13445,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A421,1)</f>
         <v>40634</v>
@@ -13458,7 +13470,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -13485,7 +13497,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>112</v>
@@ -13502,7 +13514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>49</v>
@@ -13521,7 +13533,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>315</v>
@@ -13538,7 +13550,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>40695</v>
@@ -13563,7 +13575,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>49</v>
@@ -13585,7 +13597,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40725</v>
@@ -13610,7 +13622,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13629,7 +13641,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>40756</v>
@@ -13654,7 +13666,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -13679,7 +13691,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>72</v>
@@ -13698,7 +13710,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40817</v>
@@ -13723,7 +13735,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>49</v>
@@ -13742,7 +13754,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>40848</v>
@@ -13767,7 +13779,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>40878</v>
@@ -13792,7 +13804,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -13814,7 +13826,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>309</v>
       </c>
@@ -13832,7 +13844,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A440,1)</f>
         <v>40909</v>
@@ -13857,7 +13869,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13882,7 +13894,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" ref="A445:A452" si="14">EDATE(A444,1)</f>
         <v>40969</v>
@@ -13907,7 +13919,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -13924,7 +13936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>327</v>
@@ -13941,7 +13953,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41000</v>
@@ -13966,7 +13978,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -13991,7 +14003,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -14016,7 +14028,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -14041,7 +14053,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -14066,7 +14078,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>41153</v>
@@ -14093,7 +14105,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>49</v>
@@ -14112,7 +14124,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14131,7 +14143,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14150,7 +14162,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>335</v>
@@ -14167,7 +14179,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A453,1)</f>
         <v>41183</v>
@@ -14194,7 +14206,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>158</v>
@@ -14211,7 +14223,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A458,1)</f>
         <v>41214</v>
@@ -14234,7 +14246,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14253,7 +14265,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>336</v>
@@ -14270,7 +14282,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41244</v>
@@ -14295,7 +14307,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="48" t="s">
         <v>324</v>
       </c>
@@ -14313,7 +14325,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41275</v>
@@ -14338,7 +14350,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>41306</v>
@@ -14363,7 +14375,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" ref="A467" si="15">EDATE(A466,1)</f>
         <v>41334</v>
@@ -14390,7 +14402,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14409,7 +14421,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14426,7 +14438,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>312</v>
@@ -14443,7 +14455,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A467,1)</f>
         <v>41365</v>
@@ -14468,7 +14480,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>231</v>
@@ -14485,7 +14497,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -14510,7 +14522,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -14529,7 +14541,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14548,7 +14560,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>72</v>
@@ -14567,7 +14579,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>344</v>
@@ -14586,7 +14598,7 @@
       </c>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f>EDATE(A473,1)</f>
         <v>41426</v>
@@ -14613,7 +14625,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>49</v>
@@ -14632,7 +14644,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>49</v>
@@ -14651,7 +14663,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>348</v>
@@ -14668,7 +14680,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>41456</v>
@@ -14693,7 +14705,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -14720,7 +14732,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="15" t="s">
         <v>72</v>
@@ -14739,7 +14751,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="15" t="s">
         <v>49</v>
@@ -14758,7 +14770,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="15" t="s">
         <v>49</v>
@@ -14777,7 +14789,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="15" t="s">
         <v>351</v>
@@ -14794,7 +14806,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A483,1)</f>
         <v>41518</v>
@@ -14821,7 +14833,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>55</v>
@@ -14840,7 +14852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>355</v>
@@ -14857,7 +14869,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A488,1)</f>
         <v>41548</v>
@@ -14884,7 +14896,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>243</v>
@@ -14901,7 +14913,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>41579</v>
@@ -14926,7 +14938,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>41609</v>
@@ -14953,7 +14965,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -14975,7 +14987,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>72</v>
@@ -14997,7 +15009,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>358</v>
@@ -15017,7 +15029,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>339</v>
       </c>
@@ -15035,7 +15047,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>41640</v>
@@ -15062,7 +15074,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>112</v>
@@ -15079,7 +15091,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>361</v>
@@ -15096,7 +15108,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15123,7 +15135,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>46</v>
@@ -15140,7 +15152,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>363</v>
@@ -15157,7 +15169,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>41699</v>
@@ -15184,7 +15196,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>364</v>
@@ -15201,7 +15213,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15226,7 +15238,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A526" si="16">EDATE(A507,1)</f>
         <v>41760</v>
@@ -15253,7 +15265,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -15272,7 +15284,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>72</v>
@@ -15291,7 +15303,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>49</v>
@@ -15310,7 +15322,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15329,7 +15341,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -15348,7 +15360,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>368</v>
@@ -15365,7 +15377,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="49"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f>EDATE(A508,1)</f>
         <v>41791</v>
@@ -15392,7 +15404,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>51</v>
@@ -15413,7 +15425,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>63</v>
@@ -15432,7 +15444,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>367</v>
@@ -15449,7 +15461,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>72</v>
@@ -15470,7 +15482,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A515,1)</f>
         <v>41821</v>
@@ -15495,7 +15507,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>41852</v>
@@ -15524,7 +15536,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15543,7 +15555,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>372</v>
@@ -15560,7 +15572,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A521,1)</f>
         <v>41883</v>
@@ -15585,7 +15597,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15610,7 +15622,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -15641,7 +15653,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -15660,7 +15672,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -15679,7 +15691,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>376</v>
@@ -15696,7 +15708,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A526,1)</f>
         <v>41974</v>
@@ -15721,7 +15733,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="48" t="s">
         <v>360</v>
       </c>
@@ -15739,7 +15751,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42005</v>
@@ -15766,7 +15778,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>49</v>
@@ -15787,7 +15799,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>46</v>
@@ -15804,7 +15816,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>380</v>
@@ -15821,7 +15833,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42036</v>
@@ -15846,7 +15858,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A561" si="17">EDATE(A536,1)</f>
         <v>42064</v>
@@ -15873,7 +15885,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15892,7 +15904,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15911,7 +15923,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>46</v>
@@ -15928,7 +15940,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>384</v>
@@ -15948,7 +15960,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f>EDATE(A537,1)</f>
         <v>42095</v>
@@ -15973,7 +15985,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f>EDATE(A542,1)</f>
         <v>42125</v>
@@ -16000,7 +16012,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16019,7 +16031,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>388</v>
@@ -16036,7 +16048,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f>EDATE(A543,1)</f>
         <v>42156</v>
@@ -16065,7 +16077,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>72</v>
@@ -16084,7 +16096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -16101,7 +16113,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>49</v>
@@ -16120,7 +16132,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>391</v>
@@ -16137,7 +16149,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f>EDATE(A546,1)</f>
         <v>42186</v>
@@ -16164,7 +16176,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>392</v>
@@ -16181,7 +16193,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>42217</v>
@@ -16210,7 +16222,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>72</v>
@@ -16229,7 +16241,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>393</v>
@@ -16246,7 +16258,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f>EDATE(A553,1)</f>
         <v>42248</v>
@@ -16271,7 +16283,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -16298,7 +16310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -16317,7 +16329,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>397</v>
@@ -16334,7 +16346,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42309</v>
@@ -16359,7 +16371,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16384,7 +16396,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="48" t="s">
         <v>379</v>
       </c>
@@ -16402,7 +16414,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A561,1)</f>
         <v>42370</v>
@@ -16427,7 +16439,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f>EDATE(A563,1)</f>
         <v>42401</v>
@@ -16452,7 +16464,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A585" si="18">EDATE(A564,1)</f>
         <v>42430</v>
@@ -16477,7 +16489,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -16502,7 +16514,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>388</v>
@@ -16519,7 +16531,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f>EDATE(A566,1)</f>
         <v>42491</v>
@@ -16546,7 +16558,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -16565,7 +16577,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>406</v>
@@ -16582,7 +16594,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <f>EDATE(A568,1)</f>
         <v>42522</v>
@@ -16609,7 +16621,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>407</v>
@@ -16626,7 +16638,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>42552</v>
@@ -16653,7 +16665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>72</v>
@@ -16672,7 +16684,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>416</v>
@@ -16689,7 +16701,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>42583</v>
@@ -16716,7 +16728,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>51</v>
@@ -16735,7 +16747,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>76</v>
@@ -16752,7 +16764,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>42614</v>
@@ -16777,7 +16789,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -16794,7 +16806,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>108</v>
@@ -16815,7 +16827,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>408</v>
@@ -16832,7 +16844,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f>EDATE(A579,1)</f>
         <v>42644</v>
@@ -16857,7 +16869,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -16882,7 +16894,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -16907,7 +16919,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="48" t="s">
         <v>401</v>
       </c>
@@ -16925,7 +16937,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>42736</v>
@@ -16950,7 +16962,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <f>EDATE(A587,1)</f>
         <v>42767</v>
@@ -16975,7 +16987,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>63</v>
@@ -16994,7 +17006,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>42795</v>
@@ -17021,7 +17033,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>49</v>
@@ -17040,7 +17052,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>421</v>
@@ -17057,7 +17069,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17084,7 +17096,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>49</v>
@@ -17103,7 +17115,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>422</v>
@@ -17120,7 +17132,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42856</v>
@@ -17147,7 +17159,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="15" t="s">
         <v>423</v>
@@ -17164,7 +17176,7 @@
       <c r="J597" s="12"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f>EDATE(A596,1)</f>
         <v>42887</v>
@@ -17193,7 +17205,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f t="shared" ref="A599:A606" si="19">EDATE(A598,1)</f>
         <v>42917</v>
@@ -17220,7 +17232,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -17247,7 +17259,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>426</v>
@@ -17264,7 +17276,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A600,1)</f>
         <v>42979</v>
@@ -17291,7 +17303,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>427</v>
@@ -17308,7 +17320,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43009</v>
@@ -17333,7 +17345,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17354,7 +17366,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -17381,7 +17393,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="48" t="s">
         <v>419</v>
       </c>
@@ -17399,7 +17411,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>43101</v>
@@ -17420,7 +17432,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f>EDATE(A608,1)</f>
         <v>43132</v>
@@ -17445,7 +17457,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>112</v>
@@ -17462,7 +17474,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -17487,7 +17499,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>50</v>
@@ -17506,7 +17518,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A611,1)</f>
         <v>43191</v>
@@ -17527,7 +17539,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" ref="A614:A622" si="20">EDATE(A613,1)</f>
         <v>43221</v>
@@ -17554,7 +17566,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>72</v>
@@ -17573,7 +17585,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -17592,7 +17604,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f>EDATE(A614,1)</f>
         <v>43252</v>
@@ -17619,7 +17631,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>437</v>
@@ -17636,7 +17648,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <f>EDATE(A617,1)</f>
         <v>43282</v>
@@ -17663,7 +17675,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>438</v>
@@ -17680,7 +17692,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <f>EDATE(A619,1)</f>
         <v>43313</v>
@@ -17705,7 +17717,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -17732,7 +17744,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>440</v>
@@ -17749,7 +17761,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f>EDATE(A622,1)</f>
         <v>43374</v>
@@ -17772,7 +17784,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="57" t="s">
         <v>442</v>
@@ -17789,7 +17801,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="56"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>43405</v>
@@ -17814,7 +17826,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A626,1)</f>
         <v>43435</v>
@@ -17839,7 +17851,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="48" t="s">
         <v>433</v>
       </c>
@@ -17857,7 +17869,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -17878,7 +17890,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <f>EDATE(A629,1)</f>
         <v>43497</v>
@@ -17903,7 +17915,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f t="shared" ref="A631:A645" si="21">EDATE(A630,1)</f>
         <v>43525</v>
@@ -17928,7 +17940,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -17949,7 +17961,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>43586</v>
@@ -17974,7 +17986,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>72</v>
@@ -17996,7 +18008,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>450</v>
@@ -18016,7 +18028,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43617</v>
@@ -18043,7 +18055,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -18070,7 +18082,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -18092,7 +18104,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <f>EDATE(A637,1)</f>
         <v>43678</v>
@@ -18119,7 +18131,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>49</v>
@@ -18141,7 +18153,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <f>EDATE(A639,1)</f>
         <v>43709</v>
@@ -18168,7 +18180,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>50</v>
@@ -18190,7 +18202,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <f>EDATE(A641,1)</f>
         <v>43739</v>
@@ -18211,7 +18223,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -18232,7 +18244,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -18253,7 +18265,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="48" t="s">
         <v>434</v>
       </c>
@@ -18271,7 +18283,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f>EDATE(A645,1)</f>
         <v>43831</v>
@@ -18298,7 +18310,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>454</v>
@@ -18315,7 +18327,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>179</v>
@@ -18332,7 +18344,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>72</v>
@@ -18351,7 +18363,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43862</v>
@@ -18372,7 +18384,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" ref="A652:A660" si="22">EDATE(A651,1)</f>
         <v>43891</v>
@@ -18393,7 +18405,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -18414,7 +18426,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -18435,7 +18447,7 @@
       <c r="J654" s="12"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -18456,7 +18468,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -18477,7 +18489,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -18498,7 +18510,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -18519,7 +18531,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -18540,7 +18552,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -18567,7 +18579,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>49</v>
@@ -18586,7 +18598,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>49</v>
@@ -18605,7 +18617,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>49</v>
@@ -18624,7 +18636,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>44166</v>
@@ -18649,7 +18661,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="48" t="s">
         <v>453</v>
       </c>
@@ -18667,7 +18679,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>44197</v>
@@ -18692,7 +18704,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <f>EDATE(A666,1)</f>
         <v>44228</v>
@@ -18713,7 +18725,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <f t="shared" ref="A668:A675" si="23">EDATE(A667,1)</f>
         <v>44256</v>
@@ -18734,7 +18746,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -18755,7 +18767,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -18776,7 +18788,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -18797,7 +18809,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -18818,7 +18830,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -18845,7 +18857,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -18866,7 +18878,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -18891,7 +18903,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>462</v>
@@ -18910,7 +18922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>73</v>
@@ -18929,7 +18941,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A675,1)</f>
         <v>44501</v>
@@ -18956,7 +18968,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="58" t="s">
         <v>49</v>
@@ -18975,7 +18987,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44531</v>
@@ -19002,7 +19014,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="48" t="s">
         <v>460</v>
       </c>
@@ -19020,7 +19032,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <f>EDATE(A680,1)</f>
         <v>44562</v>
@@ -19047,7 +19059,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="58" t="s">
         <v>72</v>
@@ -19066,7 +19078,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="58" t="s">
         <v>49</v>
@@ -19085,7 +19097,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <f>EDATE(A682,1)</f>
         <v>44593</v>
@@ -19110,7 +19122,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="58" t="s">
         <v>49</v>
@@ -19129,7 +19141,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <f>EDATE(A685,1)</f>
         <v>44621</v>
@@ -19156,7 +19168,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f t="shared" ref="A688:A701" si="24">EDATE(A687,1)</f>
         <v>44652</v>
@@ -19183,7 +19195,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="58" t="s">
         <v>50</v>
@@ -19202,7 +19214,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <f>EDATE(A688,1)</f>
         <v>44682</v>
@@ -19223,7 +19235,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <f t="shared" si="24"/>
         <v>44713</v>
@@ -19250,7 +19262,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>50</v>
@@ -19269,7 +19281,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>49</v>
@@ -19288,7 +19300,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>49</v>
@@ -19307,7 +19319,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>49</v>
@@ -19326,7 +19338,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>49</v>
@@ -19345,7 +19357,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <f>EDATE(A691,1)</f>
         <v>44743</v>
@@ -19372,7 +19384,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="58" t="s">
         <v>72</v>
@@ -19391,7 +19403,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
         <v>49</v>
@@ -19410,7 +19422,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f>EDATE(A697,1)</f>
         <v>44774</v>
@@ -19431,7 +19443,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -19458,7 +19470,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="58" t="s">
         <v>72</v>
@@ -19477,7 +19489,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="58" t="s">
         <v>73</v>
@@ -19496,7 +19508,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <f>EDATE(A701,1)</f>
         <v>44835</v>
@@ -19523,7 +19535,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>44866</v>
       </c>
@@ -19547,13 +19559,13 @@
         <v>478</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C706" s="13"/>
-      <c r="D706" s="74">
+      <c r="D706" s="62">
         <v>1</v>
       </c>
       <c r="E706" s="39"/>
@@ -19565,11 +19577,11 @@
       <c r="H706" s="43"/>
       <c r="I706" s="54"/>
       <c r="J706" s="12"/>
-      <c r="K706" s="75">
+      <c r="K706" s="63">
         <v>44893</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>44896</v>
       </c>
@@ -19589,7 +19601,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="48" t="s">
         <v>474</v>
       </c>
@@ -19607,7 +19619,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>44927</v>
       </c>
@@ -19631,7 +19643,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>44958</v>
       </c>
@@ -19651,7 +19663,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44986</v>
       </c>
@@ -19671,7 +19683,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>45017</v>
       </c>
@@ -19689,7 +19701,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>45047</v>
       </c>
@@ -19707,7 +19719,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>45078</v>
       </c>
@@ -19725,7 +19737,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="58"/>
       <c r="C715" s="13"/>
@@ -19741,7 +19753,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="58"/>
       <c r="C716" s="13"/>
@@ -19757,7 +19769,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="58"/>
       <c r="C717" s="13"/>
@@ -19773,7 +19785,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="58"/>
       <c r="C718" s="13"/>
@@ -19789,7 +19801,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="41"/>
       <c r="B719" s="10"/>
       <c r="C719" s="42"/>
@@ -19820,10 +19832,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19846,67 +19858,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="61"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="66"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="74"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="30"/>
@@ -19915,7 +19927,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="31"/>
@@ -19924,12 +19936,12 @@
       <c r="F5" s="8"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -19940,102 +19952,135 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="60">
         <v>44806</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
         <v>44858</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="C9" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+      <c r="C9" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="60">
         <v>44872</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="C10" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="C10" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="60">
         <v>44872</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+      <c r="C11" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
         <v>44881</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+      <c r="C12" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="60">
         <v>44965</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="C13" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="C13" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="60">
         <v>44965</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="C14" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+      <c r="C14" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="60">
         <v>44971</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="C15" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="59" t="s">
+      <c r="C15" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="60">
+        <v>44993</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="60">
+        <v>44993</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="60">
+        <v>44993</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="76">
-        <f>SUM(C8:C15)</f>
-        <v>9</v>
+      <c r="C19" s="64">
+        <f>SUM(C8:C18)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -20048,10 +20093,10 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20060,7 +20105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20068,34 +20113,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="70" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="J1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20124,7 +20169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.52900000000000003</v>
       </c>
@@ -20154,17 +20199,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20178,14 +20223,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20212,7 +20257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20238,7 +20283,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20264,7 +20309,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20290,7 +20335,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20316,7 +20361,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20342,7 +20387,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20368,7 +20413,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20394,7 +20439,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20414,7 +20459,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20434,7 +20479,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20454,7 +20499,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20475,7 +20520,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20496,7 +20541,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20517,7 +20562,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20538,7 +20583,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20559,7 +20604,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20580,7 +20625,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20601,7 +20646,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20622,7 +20667,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20643,7 +20688,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20664,7 +20709,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20685,7 +20730,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20706,7 +20751,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20727,7 +20772,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20748,7 +20793,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20769,7 +20814,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20790,7 +20835,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20811,7 +20856,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20832,7 +20877,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20853,7 +20898,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20874,7 +20919,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20883,7 +20928,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20892,7 +20937,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20901,7 +20946,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20910,7 +20955,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20919,7 +20964,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20928,7 +20973,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20937,7 +20982,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20946,7 +20991,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20955,7 +21000,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20964,7 +21009,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20973,7 +21018,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20982,7 +21027,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20991,7 +21036,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21000,7 +21045,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21009,7 +21054,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21018,7 +21063,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21027,7 +21072,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21036,7 +21081,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21045,7 +21090,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21054,7 +21099,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21063,7 +21108,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21072,7 +21117,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21081,7 +21126,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21090,7 +21135,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21099,7 +21144,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21108,7 +21153,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21117,7 +21162,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21126,7 +21171,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21135,7 +21180,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120DD5E9-768E-406C-8915-AF28457267FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="492">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1509,12 +1508,15 @@
   </si>
   <si>
     <t>2/21,28 - SL</t>
+  </si>
+  <si>
+    <t>4/12-14/2023-SL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2431,7 +2433,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2476,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2540,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2600,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2666,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2729,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2827,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2886,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2951,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2994,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3069,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3255,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3321,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3379,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3445,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3501,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3576,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +3619,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3685,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3741,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,7 +3839,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3902,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,26 +3968,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K719" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K719"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3997,13 +3999,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4012,14 +4014,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4323,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4333,7 +4335,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4341,34 +4343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K719"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A481" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4391,7 +4393,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4413,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4433,7 +4435,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4441,7 +4443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4454,7 +4456,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4471,7 +4473,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4530,7 +4532,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4552,7 +4554,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4596,7 +4598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -4618,7 +4620,7 @@
         <v>35797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -4640,7 +4642,7 @@
         <v>35804</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4669,7 +4671,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4691,7 +4693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -4708,7 +4710,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>35855</v>
@@ -4735,7 +4737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -4752,7 +4754,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>35886</v>
@@ -4777,7 +4779,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>59</v>
@@ -4796,7 +4798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35916</v>
@@ -4821,7 +4823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -4840,7 +4842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4857,7 +4859,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A22,1)</f>
         <v>35947</v>
@@ -4884,7 +4886,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>49</v>
@@ -4903,7 +4905,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>49</v>
@@ -4922,7 +4924,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -4941,7 +4943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -4958,7 +4960,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A25,1)</f>
         <v>35977</v>
@@ -4985,7 +4987,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>63</v>
@@ -5004,7 +5006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>49</v>
@@ -5023,7 +5025,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>68</v>
@@ -5040,7 +5042,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36008</v>
@@ -5067,7 +5069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -5088,7 +5090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -5107,7 +5109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>74</v>
@@ -5124,7 +5126,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A34,1)</f>
         <v>36039</v>
@@ -5151,7 +5153,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -5170,7 +5172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -5187,7 +5189,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>36069</v>
@@ -5214,7 +5216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>72</v>
@@ -5233,7 +5235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -5250,7 +5252,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>36100</v>
@@ -5277,7 +5279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -5294,7 +5296,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" ref="A46" si="0">EDATE(A44,1)</f>
         <v>36130</v>
@@ -5321,7 +5323,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>63</v>
@@ -5343,7 +5345,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -5365,7 +5367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -5383,7 +5385,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A46,1)</f>
         <v>36161</v>
@@ -5410,7 +5412,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>72</v>
@@ -5429,7 +5431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -5446,7 +5448,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -5473,7 +5475,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5490,7 +5492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -5507,7 +5509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -5526,7 +5528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -5543,7 +5545,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A53,1)</f>
         <v>36220</v>
@@ -5570,7 +5572,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>49</v>
@@ -5589,7 +5591,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>50</v>
@@ -5606,7 +5608,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -5625,7 +5627,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>92</v>
@@ -5642,7 +5644,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5667,7 +5669,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -5686,7 +5688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>49</v>
@@ -5705,7 +5707,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36281</v>
@@ -5732,7 +5734,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -5751,7 +5753,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>49</v>
@@ -5770,7 +5772,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5789,7 +5791,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>148</v>
@@ -5806,7 +5808,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A66,1)</f>
         <v>36312</v>
@@ -5833,7 +5835,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -5852,7 +5854,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -5871,7 +5873,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5888,7 +5890,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A71,1)</f>
         <v>36342</v>
@@ -5915,7 +5917,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>49</v>
@@ -5934,7 +5936,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -5953,7 +5955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36373</v>
@@ -5980,7 +5982,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>99</v>
@@ -5997,7 +5999,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36404</v>
@@ -6026,7 +6028,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -6045,7 +6047,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -6064,7 +6066,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -6083,7 +6085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>49</v>
@@ -6102,7 +6104,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>72</v>
@@ -6121,7 +6123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -6140,7 +6142,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>102</v>
@@ -6157,7 +6159,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -6184,7 +6186,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -6203,7 +6205,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>49</v>
@@ -6222,7 +6224,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>74</v>
@@ -6239,7 +6241,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A88,1)</f>
         <v>36465</v>
@@ -6268,7 +6270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6287,7 +6289,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -6304,7 +6306,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95" si="1">EDATE(A92,1)</f>
         <v>36495</v>
@@ -6331,7 +6333,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -6350,7 +6352,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -6371,7 +6373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6390,7 +6392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6409,7 +6411,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>109</v>
@@ -6426,7 +6428,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>98</v>
       </c>
@@ -6444,7 +6446,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A95,1)</f>
         <v>36526</v>
@@ -6471,7 +6473,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -6492,7 +6494,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6512,7 +6514,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -6537,7 +6539,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>63</v>
@@ -6556,7 +6558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>36586</v>
@@ -6583,7 +6585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>49</v>
@@ -6602,7 +6604,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6621,7 +6623,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>49</v>
@@ -6640,7 +6642,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6657,7 +6659,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>36617</v>
@@ -6684,7 +6686,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -6703,7 +6705,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -6720,7 +6722,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36647</v>
@@ -6749,7 +6751,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -6766,7 +6768,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6783,7 +6785,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>72</v>
@@ -6802,7 +6804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36678</v>
@@ -6827,7 +6829,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6846,7 +6848,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>63</v>
@@ -6868,7 +6870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>52</v>
@@ -6887,7 +6889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A119,1)</f>
         <v>36708</v>
@@ -6912,7 +6914,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -6931,7 +6933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>36739</v>
@@ -6956,7 +6958,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>49</v>
@@ -6975,7 +6977,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>36770</v>
@@ -7000,7 +7002,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>49</v>
@@ -7019,7 +7021,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>49</v>
@@ -7038,7 +7040,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36800</v>
@@ -7065,7 +7067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>63</v>
@@ -7084,7 +7086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>49</v>
@@ -7103,7 +7105,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>128</v>
@@ -7120,7 +7122,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" ref="A134" si="2">EDATE(A130,1)</f>
         <v>36831</v>
@@ -7147,7 +7149,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>51</v>
@@ -7168,7 +7170,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -7187,7 +7189,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>129</v>
@@ -7204,7 +7206,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>36861</v>
@@ -7229,7 +7231,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -7251,7 +7253,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>132</v>
       </c>
@@ -7269,7 +7271,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>36892</v>
@@ -7298,7 +7300,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>46</v>
@@ -7315,7 +7317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -7332,7 +7334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>36923</v>
@@ -7361,7 +7363,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>51</v>
@@ -7382,7 +7384,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -7401,7 +7403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>51</v>
@@ -7420,7 +7422,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>36951</v>
@@ -7447,7 +7449,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>51</v>
@@ -7468,7 +7470,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>103</v>
@@ -7487,7 +7489,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>36982</v>
@@ -7508,7 +7510,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152" si="3">EDATE(A151,1)</f>
         <v>37012</v>
@@ -7535,7 +7537,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7554,7 +7556,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37043</v>
@@ -7581,7 +7583,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -7602,7 +7604,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37073</v>
@@ -7631,7 +7633,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>51</v>
@@ -7650,7 +7652,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7669,7 +7671,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>37104</v>
@@ -7696,7 +7698,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -7713,7 +7715,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37135</v>
@@ -7740,7 +7742,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7761,7 +7763,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7780,7 +7782,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>37165</v>
@@ -7807,7 +7809,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>51</v>
@@ -7828,7 +7830,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>140</v>
@@ -7845,7 +7847,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37196</v>
@@ -7872,7 +7874,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -7891,7 +7893,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7912,7 +7914,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>87</v>
@@ -7929,7 +7931,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A167,1)</f>
         <v>37226</v>
@@ -7956,7 +7958,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -7975,7 +7977,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -7996,7 +7998,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -8013,7 +8015,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>133</v>
       </c>
@@ -8031,7 +8033,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A171,1)</f>
         <v>37257</v>
@@ -8056,7 +8058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -8075,7 +8077,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>51</v>
@@ -8094,7 +8096,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -8123,7 +8125,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -8140,7 +8142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -8167,7 +8169,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8196,7 +8198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -8215,7 +8217,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>73</v>
@@ -8234,7 +8236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>147</v>
@@ -8251,7 +8253,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37377</v>
@@ -8275,7 +8277,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -8296,7 +8298,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -8313,7 +8315,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>37408</v>
@@ -8340,7 +8342,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>108</v>
@@ -8361,7 +8363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>151</v>
@@ -8378,7 +8380,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>37438</v>
@@ -8403,7 +8405,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>37469</v>
@@ -8430,7 +8432,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8447,7 +8449,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37500</v>
@@ -8474,7 +8476,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>49</v>
@@ -8493,7 +8495,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>37530</v>
@@ -8520,7 +8522,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -8539,7 +8541,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>155</v>
@@ -8556,7 +8558,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" ref="A200" si="4">EDATE(A197,1)</f>
         <v>37561</v>
@@ -8585,7 +8587,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8602,7 +8604,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>37591</v>
@@ -8629,7 +8631,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>158</v>
@@ -8646,7 +8648,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="49"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -8664,7 +8666,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>37622</v>
@@ -8689,7 +8691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>50</v>
@@ -8708,7 +8710,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8725,7 +8727,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>49</v>
@@ -8744,7 +8746,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8765,7 +8767,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -8784,7 +8786,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -8801,7 +8803,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>103</v>
@@ -8820,7 +8822,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>162</v>
@@ -8837,7 +8839,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A205,1)</f>
         <v>37653</v>
@@ -8862,7 +8864,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" ref="A215:A228" si="5">EDATE(A214,1)</f>
         <v>37681</v>
@@ -8889,7 +8891,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>103</v>
@@ -8910,7 +8912,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>37712</v>
@@ -8937,7 +8939,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>72</v>
@@ -8956,7 +8958,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>166</v>
@@ -8973,7 +8975,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>37742</v>
@@ -9000,7 +9002,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>51</v>
@@ -9021,7 +9023,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>167</v>
@@ -9038,7 +9040,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>37773</v>
@@ -9063,7 +9065,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -9088,7 +9090,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>72</v>
@@ -9107,7 +9109,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>63</v>
@@ -9126,7 +9128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>37834</v>
@@ -9151,7 +9153,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -9180,7 +9182,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -9199,7 +9201,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -9220,7 +9222,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -9239,7 +9241,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>173</v>
@@ -9256,7 +9258,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A228,1)</f>
         <v>37895</v>
@@ -9285,7 +9287,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>174</v>
@@ -9302,7 +9304,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>37926</v>
@@ -9327,7 +9329,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>37956</v>
@@ -9354,7 +9356,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>49</v>
@@ -9376,7 +9378,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>176</v>
@@ -9396,7 +9398,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>177</v>
       </c>
@@ -9414,7 +9416,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>37987</v>
@@ -9441,7 +9443,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -9464,7 +9466,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>179</v>
@@ -9481,7 +9483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>180</v>
@@ -9498,7 +9500,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A240,1)</f>
         <v>38018</v>
@@ -9523,7 +9525,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>59</v>
@@ -9542,7 +9544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>38047</v>
@@ -9567,7 +9569,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>187</v>
@@ -9586,7 +9588,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>38078</v>
@@ -9611,7 +9613,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>59</v>
@@ -9630,7 +9632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>38108</v>
@@ -9655,7 +9657,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>38139</v>
@@ -9682,7 +9684,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9701,7 +9703,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>63</v>
@@ -9720,7 +9722,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>63</v>
@@ -9739,7 +9741,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>72</v>
@@ -9758,7 +9760,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>192</v>
@@ -9775,7 +9777,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A251,1)</f>
         <v>38169</v>
@@ -9796,7 +9798,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A260" si="6">EDATE(A257,1)</f>
         <v>38200</v>
@@ -9821,7 +9823,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -9846,7 +9848,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -9873,7 +9875,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9892,7 +9894,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>195</v>
@@ -9909,7 +9911,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>38292</v>
@@ -9934,7 +9936,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>38322</v>
@@ -9961,7 +9963,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>199</v>
@@ -9981,7 +9983,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>200</v>
       </c>
@@ -9999,7 +10001,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>38353</v>
@@ -10026,7 +10028,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>112</v>
@@ -10043,7 +10045,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -10060,7 +10062,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>203</v>
@@ -10077,7 +10079,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A267,1)</f>
         <v>38384</v>
@@ -10102,7 +10104,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A283" si="7">EDATE(A271,1)</f>
         <v>38412</v>
@@ -10127,7 +10129,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -10152,7 +10154,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -10177,7 +10179,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -10202,7 +10204,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -10227,7 +10229,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -10252,7 +10254,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>52</v>
@@ -10271,7 +10273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>38596</v>
@@ -10298,7 +10300,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>211</v>
@@ -10315,7 +10317,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>72</v>
@@ -10334,7 +10336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>38626</v>
@@ -10359,7 +10361,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -10386,7 +10388,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>213</v>
@@ -10403,7 +10405,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>38687</v>
@@ -10428,7 +10430,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
         <v>216</v>
       </c>
@@ -10446,7 +10448,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>38718</v>
@@ -10473,7 +10475,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>179</v>
@@ -10490,7 +10492,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -10509,7 +10511,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>219</v>
@@ -10526,7 +10528,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="49"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A287,1)</f>
         <v>38749</v>
@@ -10553,7 +10555,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>220</v>
@@ -10570,7 +10572,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38777</v>
@@ -10597,7 +10599,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>72</v>
@@ -10616,7 +10618,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>222</v>
@@ -10633,7 +10635,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>63</v>
@@ -10652,7 +10654,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>72</v>
@@ -10673,7 +10675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A293,1)</f>
         <v>38808</v>
@@ -10700,7 +10702,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>224</v>
@@ -10717,7 +10719,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>38838</v>
@@ -10746,7 +10748,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10763,7 +10765,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>227</v>
@@ -10780,7 +10782,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>38869</v>
@@ -10805,7 +10807,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="8">EDATE(A303,1)</f>
         <v>38899</v>
@@ -10832,7 +10834,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>230</v>
@@ -10849,7 +10851,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>38930</v>
@@ -10874,7 +10876,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -10899,7 +10901,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10924,7 +10926,7 @@
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10949,7 +10951,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>39052</v>
@@ -10974,7 +10976,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>217</v>
       </c>
@@ -10992,7 +10994,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39083</v>
@@ -11019,7 +11021,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>49</v>
@@ -11041,7 +11043,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -11061,7 +11063,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>237</v>
@@ -11081,7 +11083,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>39114</v>
@@ -11106,7 +11108,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A336" si="9">EDATE(A316,1)</f>
         <v>39142</v>
@@ -11131,7 +11133,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>49</v>
@@ -11153,7 +11155,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -11173,7 +11175,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>72</v>
@@ -11195,7 +11197,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>241</v>
@@ -11212,7 +11214,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>39173</v>
@@ -11239,7 +11241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -11260,7 +11262,7 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>243</v>
@@ -11277,7 +11279,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39203</v>
@@ -11302,7 +11304,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -11327,7 +11329,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>103</v>
@@ -11348,7 +11350,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11365,7 +11367,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>39264</v>
@@ -11390,7 +11392,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11409,7 +11411,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>39295</v>
@@ -11436,7 +11438,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11453,7 +11455,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>39326</v>
@@ -11478,7 +11480,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -11503,7 +11505,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>39387</v>
@@ -11528,7 +11530,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11553,7 +11555,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>253</v>
       </c>
@@ -11571,7 +11573,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39448</v>
@@ -11596,7 +11598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>39479</v>
@@ -11621,7 +11623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>257</v>
@@ -11638,7 +11640,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>39508</v>
@@ -11663,7 +11665,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A356" si="10">EDATE(A341,1)</f>
         <v>39539</v>
@@ -11688,7 +11690,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -11715,7 +11717,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>72</v>
@@ -11734,7 +11736,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>63</v>
@@ -11753,7 +11755,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>263</v>
@@ -11770,7 +11772,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A343,1)</f>
         <v>39600</v>
@@ -11797,7 +11799,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>49</v>
@@ -11816,7 +11818,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>265</v>
@@ -11833,7 +11835,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>39630</v>
@@ -11858,7 +11860,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>266</v>
@@ -11875,7 +11877,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>39661</v>
@@ -11900,7 +11902,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>268</v>
@@ -11917,7 +11919,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>39692</v>
@@ -11942,7 +11944,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -11967,7 +11969,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11994,7 +11996,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12013,7 +12015,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>72</v>
@@ -12032,7 +12034,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>72</v>
@@ -12051,7 +12053,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>272</v>
@@ -12068,7 +12070,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A356,1)</f>
         <v>39783</v>
@@ -12093,7 +12095,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
         <v>254</v>
       </c>
@@ -12111,7 +12113,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>39814</v>
@@ -12138,7 +12140,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>46</v>
@@ -12155,7 +12157,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>275</v>
@@ -12172,7 +12174,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12199,7 +12201,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12218,7 +12220,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -12235,7 +12237,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>277</v>
@@ -12252,7 +12254,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>39873</v>
@@ -12277,7 +12279,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A390" si="11">EDATE(A370,1)</f>
         <v>39904</v>
@@ -12304,7 +12306,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12323,7 +12325,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12340,7 +12342,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>39934</v>
@@ -12365,7 +12367,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12382,7 +12384,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>39965</v>
@@ -12409,7 +12411,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>72</v>
@@ -12428,7 +12430,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>284</v>
@@ -12445,7 +12447,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>39995</v>
@@ -12470,7 +12472,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -12495,7 +12497,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -12522,7 +12524,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>287</v>
@@ -12539,7 +12541,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40087</v>
@@ -12566,7 +12568,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -12585,7 +12587,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -12604,7 +12606,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>103</v>
@@ -12625,7 +12627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>46</v>
@@ -12642,7 +12644,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>289</v>
@@ -12659,7 +12661,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A383,1)</f>
         <v>40118</v>
@@ -12684,7 +12686,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -12713,7 +12715,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>293</v>
@@ -12730,7 +12732,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>274</v>
       </c>
@@ -12748,7 +12750,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>40179</v>
@@ -12773,7 +12775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>295</v>
@@ -12790,7 +12792,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>40210</v>
@@ -12817,7 +12819,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>49</v>
@@ -12839,7 +12841,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>46</v>
@@ -12856,7 +12858,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>111</v>
@@ -12873,7 +12875,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40238</v>
@@ -12900,7 +12902,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>72</v>
@@ -12919,7 +12921,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>297</v>
@@ -12936,7 +12938,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>40269</v>
@@ -12961,7 +12963,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A410" si="12">EDATE(A402,1)</f>
         <v>40299</v>
@@ -12986,7 +12988,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -13005,7 +13007,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>40330</v>
@@ -13030,7 +13032,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -13055,7 +13057,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -13082,7 +13084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>302</v>
@@ -13099,7 +13101,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>40422</v>
@@ -13124,7 +13126,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -13149,7 +13151,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40483</v>
@@ -13176,7 +13178,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>49</v>
@@ -13195,7 +13197,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>49</v>
@@ -13214,7 +13216,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>305</v>
@@ -13231,7 +13233,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>40513</v>
@@ -13258,7 +13260,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>307</v>
@@ -13278,7 +13280,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>308</v>
       </c>
@@ -13296,7 +13298,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>40544</v>
@@ -13323,7 +13325,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>310</v>
@@ -13340,7 +13342,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>40575</v>
@@ -13365,7 +13367,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A435" si="13">EDATE(A420,1)</f>
         <v>40603</v>
@@ -13390,7 +13392,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -13409,7 +13411,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>72</v>
@@ -13428,7 +13430,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>312</v>
@@ -13445,7 +13447,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A421,1)</f>
         <v>40634</v>
@@ -13470,7 +13472,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -13497,7 +13499,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>112</v>
@@ -13514,7 +13516,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>49</v>
@@ -13533,7 +13535,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>315</v>
@@ -13550,7 +13552,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>40695</v>
@@ -13575,7 +13577,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>49</v>
@@ -13597,7 +13599,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40725</v>
@@ -13622,7 +13624,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13641,7 +13643,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>40756</v>
@@ -13666,7 +13668,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -13691,7 +13693,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>72</v>
@@ -13710,7 +13712,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40817</v>
@@ -13735,7 +13737,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>49</v>
@@ -13754,7 +13756,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>40848</v>
@@ -13779,7 +13781,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>40878</v>
@@ -13804,7 +13806,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -13826,7 +13828,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>309</v>
       </c>
@@ -13844,7 +13846,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A440,1)</f>
         <v>40909</v>
@@ -13869,7 +13871,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13894,7 +13896,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" ref="A445:A452" si="14">EDATE(A444,1)</f>
         <v>40969</v>
@@ -13919,7 +13921,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -13936,7 +13938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>327</v>
@@ -13953,7 +13955,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41000</v>
@@ -13978,7 +13980,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -14003,7 +14005,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -14028,7 +14030,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -14053,7 +14055,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -14078,7 +14080,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>41153</v>
@@ -14105,7 +14107,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>49</v>
@@ -14124,7 +14126,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14143,7 +14145,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14162,7 +14164,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>335</v>
@@ -14179,7 +14181,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A453,1)</f>
         <v>41183</v>
@@ -14206,7 +14208,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>158</v>
@@ -14223,7 +14225,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A458,1)</f>
         <v>41214</v>
@@ -14246,7 +14248,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14265,7 +14267,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>336</v>
@@ -14282,7 +14284,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41244</v>
@@ -14307,7 +14309,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>324</v>
       </c>
@@ -14325,7 +14327,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41275</v>
@@ -14350,7 +14352,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>41306</v>
@@ -14375,7 +14377,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" ref="A467" si="15">EDATE(A466,1)</f>
         <v>41334</v>
@@ -14402,7 +14404,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14421,7 +14423,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14438,7 +14440,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>312</v>
@@ -14455,7 +14457,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A467,1)</f>
         <v>41365</v>
@@ -14480,7 +14482,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>231</v>
@@ -14497,7 +14499,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -14522,7 +14524,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -14541,7 +14543,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14560,7 +14562,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>72</v>
@@ -14579,7 +14581,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>344</v>
@@ -14598,7 +14600,7 @@
       </c>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A473,1)</f>
         <v>41426</v>
@@ -14625,7 +14627,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>49</v>
@@ -14644,7 +14646,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>49</v>
@@ -14663,7 +14665,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>348</v>
@@ -14680,7 +14682,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>41456</v>
@@ -14705,7 +14707,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -14732,7 +14734,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="15" t="s">
         <v>72</v>
@@ -14751,7 +14753,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="15" t="s">
         <v>49</v>
@@ -14770,7 +14772,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="15" t="s">
         <v>49</v>
@@ -14789,7 +14791,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="15" t="s">
         <v>351</v>
@@ -14806,7 +14808,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A483,1)</f>
         <v>41518</v>
@@ -14833,7 +14835,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>55</v>
@@ -14852,7 +14854,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>355</v>
@@ -14869,7 +14871,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A488,1)</f>
         <v>41548</v>
@@ -14896,7 +14898,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>243</v>
@@ -14913,7 +14915,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>41579</v>
@@ -14938,7 +14940,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>41609</v>
@@ -14965,7 +14967,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -14987,7 +14989,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>72</v>
@@ -15009,7 +15011,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>358</v>
@@ -15029,7 +15031,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>339</v>
       </c>
@@ -15047,7 +15049,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>41640</v>
@@ -15074,7 +15076,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>112</v>
@@ -15091,7 +15093,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>361</v>
@@ -15108,7 +15110,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15135,7 +15137,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>46</v>
@@ -15152,7 +15154,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>363</v>
@@ -15169,7 +15171,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>41699</v>
@@ -15196,7 +15198,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>364</v>
@@ -15213,7 +15215,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15238,7 +15240,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A526" si="16">EDATE(A507,1)</f>
         <v>41760</v>
@@ -15265,7 +15267,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -15284,7 +15286,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>72</v>
@@ -15303,7 +15305,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>49</v>
@@ -15322,7 +15324,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15341,7 +15343,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -15360,7 +15362,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>368</v>
@@ -15377,7 +15379,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="49"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f>EDATE(A508,1)</f>
         <v>41791</v>
@@ -15404,7 +15406,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>51</v>
@@ -15425,7 +15427,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>63</v>
@@ -15444,7 +15446,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>367</v>
@@ -15461,7 +15463,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>72</v>
@@ -15482,7 +15484,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A515,1)</f>
         <v>41821</v>
@@ -15507,7 +15509,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>41852</v>
@@ -15536,7 +15538,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15555,7 +15557,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>372</v>
@@ -15572,7 +15574,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A521,1)</f>
         <v>41883</v>
@@ -15597,7 +15599,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15622,7 +15624,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -15653,7 +15655,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -15672,7 +15674,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -15691,7 +15693,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>376</v>
@@ -15708,7 +15710,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f>EDATE(A526,1)</f>
         <v>41974</v>
@@ -15733,7 +15735,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="48" t="s">
         <v>360</v>
       </c>
@@ -15751,7 +15753,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42005</v>
@@ -15778,7 +15780,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>49</v>
@@ -15799,7 +15801,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>46</v>
@@ -15816,7 +15818,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>380</v>
@@ -15833,7 +15835,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42036</v>
@@ -15858,7 +15860,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A561" si="17">EDATE(A536,1)</f>
         <v>42064</v>
@@ -15885,7 +15887,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15904,7 +15906,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15923,7 +15925,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>46</v>
@@ -15940,7 +15942,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>384</v>
@@ -15960,7 +15962,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A537,1)</f>
         <v>42095</v>
@@ -15985,7 +15987,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f>EDATE(A542,1)</f>
         <v>42125</v>
@@ -16012,7 +16014,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16031,7 +16033,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>388</v>
@@ -16048,7 +16050,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f>EDATE(A543,1)</f>
         <v>42156</v>
@@ -16077,7 +16079,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>72</v>
@@ -16096,7 +16098,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -16113,7 +16115,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>49</v>
@@ -16132,7 +16134,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>391</v>
@@ -16149,7 +16151,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f>EDATE(A546,1)</f>
         <v>42186</v>
@@ -16176,7 +16178,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>392</v>
@@ -16193,7 +16195,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>42217</v>
@@ -16222,7 +16224,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>72</v>
@@ -16241,7 +16243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>393</v>
@@ -16258,7 +16260,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f>EDATE(A553,1)</f>
         <v>42248</v>
@@ -16283,7 +16285,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -16310,7 +16312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -16329,7 +16331,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>397</v>
@@ -16346,7 +16348,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42309</v>
@@ -16371,7 +16373,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16396,7 +16398,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="48" t="s">
         <v>379</v>
       </c>
@@ -16414,7 +16416,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f>EDATE(A561,1)</f>
         <v>42370</v>
@@ -16439,7 +16441,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f>EDATE(A563,1)</f>
         <v>42401</v>
@@ -16464,7 +16466,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A585" si="18">EDATE(A564,1)</f>
         <v>42430</v>
@@ -16489,7 +16491,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -16514,7 +16516,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>388</v>
@@ -16531,7 +16533,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f>EDATE(A566,1)</f>
         <v>42491</v>
@@ -16558,7 +16560,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -16577,7 +16579,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>406</v>
@@ -16594,7 +16596,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f>EDATE(A568,1)</f>
         <v>42522</v>
@@ -16621,7 +16623,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>407</v>
@@ -16638,7 +16640,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>42552</v>
@@ -16665,7 +16667,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>72</v>
@@ -16684,7 +16686,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>416</v>
@@ -16701,7 +16703,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>42583</v>
@@ -16728,7 +16730,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>51</v>
@@ -16747,7 +16749,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>76</v>
@@ -16764,7 +16766,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>42614</v>
@@ -16789,7 +16791,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -16806,7 +16808,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>108</v>
@@ -16827,7 +16829,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>408</v>
@@ -16844,7 +16846,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <f>EDATE(A579,1)</f>
         <v>42644</v>
@@ -16869,7 +16871,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -16894,7 +16896,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -16919,7 +16921,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="48" t="s">
         <v>401</v>
       </c>
@@ -16937,7 +16939,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>42736</v>
@@ -16962,7 +16964,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <f>EDATE(A587,1)</f>
         <v>42767</v>
@@ -16987,7 +16989,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>63</v>
@@ -17006,7 +17008,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>42795</v>
@@ -17033,7 +17035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>49</v>
@@ -17052,7 +17054,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>421</v>
@@ -17069,7 +17071,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17096,7 +17098,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>49</v>
@@ -17115,7 +17117,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>422</v>
@@ -17132,7 +17134,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42856</v>
@@ -17159,7 +17161,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="15" t="s">
         <v>423</v>
@@ -17176,7 +17178,7 @@
       <c r="J597" s="12"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f>EDATE(A596,1)</f>
         <v>42887</v>
@@ -17205,7 +17207,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f t="shared" ref="A599:A606" si="19">EDATE(A598,1)</f>
         <v>42917</v>
@@ -17232,7 +17234,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -17259,7 +17261,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>426</v>
@@ -17276,7 +17278,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A600,1)</f>
         <v>42979</v>
@@ -17303,7 +17305,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>427</v>
@@ -17320,7 +17322,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43009</v>
@@ -17345,7 +17347,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17366,7 +17368,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -17393,7 +17395,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="48" t="s">
         <v>419</v>
       </c>
@@ -17411,7 +17413,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>43101</v>
@@ -17432,7 +17434,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f>EDATE(A608,1)</f>
         <v>43132</v>
@@ -17457,7 +17459,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>112</v>
@@ -17474,7 +17476,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -17499,7 +17501,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>50</v>
@@ -17518,7 +17520,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <f>EDATE(A611,1)</f>
         <v>43191</v>
@@ -17539,7 +17541,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f t="shared" ref="A614:A622" si="20">EDATE(A613,1)</f>
         <v>43221</v>
@@ -17566,7 +17568,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>72</v>
@@ -17585,7 +17587,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -17604,7 +17606,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <f>EDATE(A614,1)</f>
         <v>43252</v>
@@ -17631,7 +17633,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>437</v>
@@ -17648,7 +17650,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <f>EDATE(A617,1)</f>
         <v>43282</v>
@@ -17675,7 +17677,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>438</v>
@@ -17692,7 +17694,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <f>EDATE(A619,1)</f>
         <v>43313</v>
@@ -17717,7 +17719,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -17744,7 +17746,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>440</v>
@@ -17761,7 +17763,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f>EDATE(A622,1)</f>
         <v>43374</v>
@@ -17784,7 +17786,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="57" t="s">
         <v>442</v>
@@ -17801,7 +17803,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="56"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>43405</v>
@@ -17826,7 +17828,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f>EDATE(A626,1)</f>
         <v>43435</v>
@@ -17851,7 +17853,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="48" t="s">
         <v>433</v>
       </c>
@@ -17869,7 +17871,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -17890,7 +17892,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <f>EDATE(A629,1)</f>
         <v>43497</v>
@@ -17915,7 +17917,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <f t="shared" ref="A631:A645" si="21">EDATE(A630,1)</f>
         <v>43525</v>
@@ -17940,7 +17942,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -17961,7 +17963,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>43586</v>
@@ -17986,7 +17988,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>72</v>
@@ -18008,7 +18010,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>450</v>
@@ -18028,7 +18030,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43617</v>
@@ -18055,7 +18057,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -18082,7 +18084,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -18104,7 +18106,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <f>EDATE(A637,1)</f>
         <v>43678</v>
@@ -18131,7 +18133,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>49</v>
@@ -18153,7 +18155,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <f>EDATE(A639,1)</f>
         <v>43709</v>
@@ -18180,7 +18182,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>50</v>
@@ -18202,7 +18204,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <f>EDATE(A641,1)</f>
         <v>43739</v>
@@ -18223,7 +18225,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -18244,7 +18246,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -18265,7 +18267,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="48" t="s">
         <v>434</v>
       </c>
@@ -18283,7 +18285,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f>EDATE(A645,1)</f>
         <v>43831</v>
@@ -18310,7 +18312,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>454</v>
@@ -18327,7 +18329,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>179</v>
@@ -18344,7 +18346,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>72</v>
@@ -18363,7 +18365,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43862</v>
@@ -18384,7 +18386,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" ref="A652:A660" si="22">EDATE(A651,1)</f>
         <v>43891</v>
@@ -18405,7 +18407,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -18426,7 +18428,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -18447,7 +18449,7 @@
       <c r="J654" s="12"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -18468,7 +18470,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -18489,7 +18491,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -18510,7 +18512,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -18531,7 +18533,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -18552,7 +18554,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -18579,7 +18581,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>49</v>
@@ -18598,7 +18600,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>49</v>
@@ -18617,7 +18619,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>49</v>
@@ -18636,7 +18638,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>44166</v>
@@ -18661,7 +18663,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="48" t="s">
         <v>453</v>
       </c>
@@ -18679,7 +18681,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>44197</v>
@@ -18704,7 +18706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <f>EDATE(A666,1)</f>
         <v>44228</v>
@@ -18725,7 +18727,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <f t="shared" ref="A668:A675" si="23">EDATE(A667,1)</f>
         <v>44256</v>
@@ -18746,7 +18748,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -18767,7 +18769,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -18788,7 +18790,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -18809,7 +18811,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -18830,7 +18832,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -18857,7 +18859,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -18878,7 +18880,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -18903,7 +18905,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>462</v>
@@ -18922,7 +18924,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>73</v>
@@ -18941,7 +18943,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A675,1)</f>
         <v>44501</v>
@@ -18968,7 +18970,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="58" t="s">
         <v>49</v>
@@ -18987,7 +18989,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44531</v>
@@ -19014,7 +19016,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="48" t="s">
         <v>460</v>
       </c>
@@ -19032,7 +19034,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <f>EDATE(A680,1)</f>
         <v>44562</v>
@@ -19059,7 +19061,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="58" t="s">
         <v>72</v>
@@ -19078,7 +19080,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="58" t="s">
         <v>49</v>
@@ -19097,7 +19099,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <f>EDATE(A682,1)</f>
         <v>44593</v>
@@ -19122,7 +19124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="58" t="s">
         <v>49</v>
@@ -19141,7 +19143,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <f>EDATE(A685,1)</f>
         <v>44621</v>
@@ -19168,7 +19170,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f t="shared" ref="A688:A701" si="24">EDATE(A687,1)</f>
         <v>44652</v>
@@ -19195,7 +19197,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="58" t="s">
         <v>50</v>
@@ -19214,7 +19216,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <f>EDATE(A688,1)</f>
         <v>44682</v>
@@ -19235,7 +19237,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <f t="shared" si="24"/>
         <v>44713</v>
@@ -19262,7 +19264,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>50</v>
@@ -19281,7 +19283,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>49</v>
@@ -19300,7 +19302,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>49</v>
@@ -19319,7 +19321,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>49</v>
@@ -19338,7 +19340,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>49</v>
@@ -19357,7 +19359,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <f>EDATE(A691,1)</f>
         <v>44743</v>
@@ -19384,7 +19386,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="58" t="s">
         <v>72</v>
@@ -19403,7 +19405,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
         <v>49</v>
@@ -19422,7 +19424,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <f>EDATE(A697,1)</f>
         <v>44774</v>
@@ -19443,7 +19445,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -19470,7 +19472,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="58" t="s">
         <v>72</v>
@@ -19489,7 +19491,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="58" t="s">
         <v>73</v>
@@ -19508,7 +19510,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <f>EDATE(A701,1)</f>
         <v>44835</v>
@@ -19535,7 +19537,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>44866</v>
       </c>
@@ -19559,7 +19561,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="10" t="s">
         <v>50</v>
@@ -19581,7 +19583,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>44896</v>
       </c>
@@ -19601,7 +19603,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="48" t="s">
         <v>474</v>
       </c>
@@ -19619,7 +19621,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>44927</v>
       </c>
@@ -19643,7 +19645,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>44958</v>
       </c>
@@ -19663,7 +19665,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>44986</v>
       </c>
@@ -19683,7 +19685,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>45017</v>
       </c>
@@ -19701,7 +19703,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45047</v>
       </c>
@@ -19719,7 +19721,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>45078</v>
       </c>
@@ -19737,7 +19739,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="58"/>
       <c r="C715" s="13"/>
@@ -19753,7 +19755,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="58"/>
       <c r="C716" s="13"/>
@@ -19769,7 +19771,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="58"/>
       <c r="C717" s="13"/>
@@ -19785,7 +19787,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="58"/>
       <c r="C718" s="13"/>
@@ -19801,7 +19803,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="41"/>
       <c r="B719" s="10"/>
       <c r="C719" s="42"/>
@@ -19832,10 +19834,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19858,22 +19860,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -19890,7 +19892,7 @@
       </c>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -19903,7 +19905,7 @@
       <c r="F2" s="74"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -19918,7 +19920,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="30"/>
@@ -19927,7 +19929,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="31"/>
@@ -19936,12 +19938,12 @@
       <c r="F5" s="8"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -19952,7 +19954,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>44806</v>
       </c>
@@ -19963,7 +19965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>44858</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>44872</v>
       </c>
@@ -19985,7 +19987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>44872</v>
       </c>
@@ -19996,7 +19998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <v>44881</v>
       </c>
@@ -20007,7 +20009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>44965</v>
       </c>
@@ -20018,7 +20020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="60">
         <v>44965</v>
       </c>
@@ -20029,7 +20031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>44971</v>
       </c>
@@ -20040,7 +20042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>44993</v>
       </c>
@@ -20051,7 +20053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>44993</v>
       </c>
@@ -20062,7 +20064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="60">
         <v>44993</v>
       </c>
@@ -20073,14 +20075,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>45034</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="C19" s="64">
-        <f>SUM(C8:C18)</f>
-        <v>16</v>
+      <c r="C20" s="64">
+        <f>SUM(C8:C19)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -20093,10 +20106,10 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20105,7 +20118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20113,21 +20126,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -20140,7 +20153,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20169,7 +20182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.52900000000000003</v>
       </c>
@@ -20199,17 +20212,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20230,7 +20243,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20257,7 +20270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20283,7 +20296,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20309,7 +20322,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20335,7 +20348,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20361,7 +20374,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20387,7 +20400,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20413,7 +20426,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20439,7 +20452,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20459,7 +20472,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20479,7 +20492,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20499,7 +20512,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20520,7 +20533,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20541,7 +20554,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20562,7 +20575,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20583,7 +20596,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20604,7 +20617,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20625,7 +20638,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20646,7 +20659,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20667,7 +20680,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20688,7 +20701,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20709,7 +20722,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20730,7 +20743,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20751,7 +20764,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20772,7 +20785,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20793,7 +20806,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20814,7 +20827,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20835,7 +20848,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20856,7 +20869,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20877,7 +20890,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20898,7 +20911,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20919,7 +20932,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20928,7 +20941,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20937,7 +20950,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20946,7 +20959,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20955,7 +20968,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20964,7 +20977,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20973,7 +20986,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20982,7 +20995,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20991,7 +21004,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21000,7 +21013,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21009,7 +21022,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21018,7 +21031,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21027,7 +21040,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21036,7 +21049,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21045,7 +21058,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21054,7 +21067,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21063,7 +21076,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21072,7 +21085,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21081,7 +21094,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21090,7 +21103,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21099,7 +21112,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21108,7 +21121,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21117,7 +21130,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21126,7 +21139,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21135,7 +21148,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21144,7 +21157,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21153,7 +21166,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21162,7 +21175,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21171,7 +21184,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21180,7 +21193,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A9CA7-BC57-42D4-B547-51D2D2F7FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1511,12 +1512,18 @@
   </si>
   <si>
     <t>4/12-14/2023-SL</t>
+  </si>
+  <si>
+    <t>5/22,29/2023</t>
+  </si>
+  <si>
+    <t>QL(6-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2433,7 +2440,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2483,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2547,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,7 +2607,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2673,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2736,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2834,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2893,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2958,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3001,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3076,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3262,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3328,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3386,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3452,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3508,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3583,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3626,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3692,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3741,7 +3748,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3846,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3902,7 +3909,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3951,7 +3958,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3968,26 +3975,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K719"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K719" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3999,13 +4006,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4014,14 +4021,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4325,7 +4332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4335,7 +4342,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4343,34 +4350,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K719"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A481" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A707" activePane="bottomLeft"/>
+      <selection activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="K715" sqref="K715"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4393,7 +4400,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4420,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4435,7 +4442,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4443,7 +4450,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4456,7 +4463,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4473,7 +4480,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4517,7 +4524,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.999999999880882E-3</v>
+        <v>2.5099999999998808</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4527,12 +4534,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-0.22099999999999997</v>
+        <v>10.279</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4554,7 +4561,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4598,7 +4605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -4620,7 +4627,7 @@
         <v>35797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -4642,7 +4649,7 @@
         <v>35804</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4671,7 +4678,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4693,7 +4700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -4710,7 +4717,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>35855</v>
@@ -4737,7 +4744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -4754,7 +4761,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>35886</v>
@@ -4779,7 +4786,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>59</v>
@@ -4798,7 +4805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35916</v>
@@ -4823,7 +4830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -4842,7 +4849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4859,7 +4866,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A22,1)</f>
         <v>35947</v>
@@ -4886,7 +4893,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>49</v>
@@ -4905,7 +4912,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>49</v>
@@ -4924,7 +4931,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -4943,7 +4950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -4960,7 +4967,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A25,1)</f>
         <v>35977</v>
@@ -4987,7 +4994,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>63</v>
@@ -5006,7 +5013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>49</v>
@@ -5025,7 +5032,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>68</v>
@@ -5042,7 +5049,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36008</v>
@@ -5069,7 +5076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -5090,7 +5097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -5109,7 +5116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>74</v>
@@ -5126,7 +5133,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A34,1)</f>
         <v>36039</v>
@@ -5153,7 +5160,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -5172,7 +5179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -5189,7 +5196,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>36069</v>
@@ -5216,7 +5223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>72</v>
@@ -5235,7 +5242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -5252,7 +5259,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>36100</v>
@@ -5279,7 +5286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -5296,7 +5303,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" ref="A46" si="0">EDATE(A44,1)</f>
         <v>36130</v>
@@ -5323,7 +5330,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>63</v>
@@ -5345,7 +5352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -5367,7 +5374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -5385,7 +5392,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A46,1)</f>
         <v>36161</v>
@@ -5412,7 +5419,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>72</v>
@@ -5431,7 +5438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -5448,7 +5455,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -5475,7 +5482,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5492,7 +5499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -5509,7 +5516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -5528,7 +5535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -5545,7 +5552,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A53,1)</f>
         <v>36220</v>
@@ -5572,7 +5579,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>49</v>
@@ -5591,7 +5598,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>50</v>
@@ -5608,7 +5615,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -5627,7 +5634,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>92</v>
@@ -5644,7 +5651,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5669,7 +5676,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -5688,7 +5695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>49</v>
@@ -5707,7 +5714,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36281</v>
@@ -5734,7 +5741,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -5753,7 +5760,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>49</v>
@@ -5772,7 +5779,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5791,7 +5798,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>148</v>
@@ -5808,7 +5815,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A66,1)</f>
         <v>36312</v>
@@ -5835,7 +5842,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -5854,7 +5861,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -5873,7 +5880,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5890,7 +5897,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A71,1)</f>
         <v>36342</v>
@@ -5917,7 +5924,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>49</v>
@@ -5936,7 +5943,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -5955,7 +5962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36373</v>
@@ -5982,7 +5989,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>99</v>
@@ -5999,7 +6006,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36404</v>
@@ -6028,7 +6035,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -6047,7 +6054,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -6066,7 +6073,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -6085,7 +6092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>49</v>
@@ -6104,7 +6111,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>72</v>
@@ -6123,7 +6130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -6142,7 +6149,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>102</v>
@@ -6159,7 +6166,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -6186,7 +6193,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -6205,7 +6212,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>49</v>
@@ -6224,7 +6231,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>74</v>
@@ -6241,7 +6248,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A88,1)</f>
         <v>36465</v>
@@ -6270,7 +6277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6289,7 +6296,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -6306,7 +6313,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95" si="1">EDATE(A92,1)</f>
         <v>36495</v>
@@ -6333,7 +6340,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -6352,7 +6359,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -6373,7 +6380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6392,7 +6399,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6411,7 +6418,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>109</v>
@@ -6428,7 +6435,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>98</v>
       </c>
@@ -6446,7 +6453,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A95,1)</f>
         <v>36526</v>
@@ -6473,7 +6480,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -6494,7 +6501,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6514,7 +6521,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -6539,7 +6546,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>63</v>
@@ -6558,7 +6565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>36586</v>
@@ -6585,7 +6592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>49</v>
@@ -6604,7 +6611,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6623,7 +6630,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>49</v>
@@ -6642,7 +6649,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6659,7 +6666,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>36617</v>
@@ -6686,7 +6693,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -6705,7 +6712,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -6722,7 +6729,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36647</v>
@@ -6751,7 +6758,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -6768,7 +6775,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6785,7 +6792,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>72</v>
@@ -6804,7 +6811,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36678</v>
@@ -6829,7 +6836,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6848,7 +6855,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>63</v>
@@ -6870,7 +6877,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>52</v>
@@ -6889,7 +6896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A119,1)</f>
         <v>36708</v>
@@ -6914,7 +6921,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -6933,7 +6940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>36739</v>
@@ -6958,7 +6965,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>49</v>
@@ -6977,7 +6984,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>36770</v>
@@ -7002,7 +7009,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>49</v>
@@ -7021,7 +7028,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>49</v>
@@ -7040,7 +7047,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36800</v>
@@ -7067,7 +7074,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>63</v>
@@ -7086,7 +7093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>49</v>
@@ -7105,7 +7112,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>128</v>
@@ -7122,7 +7129,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" ref="A134" si="2">EDATE(A130,1)</f>
         <v>36831</v>
@@ -7149,7 +7156,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>51</v>
@@ -7170,7 +7177,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -7189,7 +7196,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>129</v>
@@ -7206,7 +7213,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>36861</v>
@@ -7231,7 +7238,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -7253,7 +7260,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>132</v>
       </c>
@@ -7271,7 +7278,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>36892</v>
@@ -7300,7 +7307,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>46</v>
@@ -7317,7 +7324,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -7334,7 +7341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>36923</v>
@@ -7363,7 +7370,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>51</v>
@@ -7384,7 +7391,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -7403,7 +7410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>51</v>
@@ -7422,7 +7429,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>36951</v>
@@ -7449,7 +7456,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>51</v>
@@ -7470,7 +7477,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>103</v>
@@ -7489,7 +7496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>36982</v>
@@ -7510,7 +7517,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152" si="3">EDATE(A151,1)</f>
         <v>37012</v>
@@ -7537,7 +7544,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7556,7 +7563,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37043</v>
@@ -7583,7 +7590,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -7604,7 +7611,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37073</v>
@@ -7633,7 +7640,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>51</v>
@@ -7652,7 +7659,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7671,7 +7678,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>37104</v>
@@ -7698,7 +7705,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -7715,7 +7722,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37135</v>
@@ -7742,7 +7749,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7763,7 +7770,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7782,7 +7789,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>37165</v>
@@ -7809,7 +7816,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>51</v>
@@ -7830,7 +7837,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>140</v>
@@ -7847,7 +7854,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37196</v>
@@ -7874,7 +7881,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -7893,7 +7900,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7914,7 +7921,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>87</v>
@@ -7931,7 +7938,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A167,1)</f>
         <v>37226</v>
@@ -7958,7 +7965,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -7977,7 +7984,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -7998,7 +8005,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -8015,7 +8022,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>133</v>
       </c>
@@ -8033,7 +8040,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A171,1)</f>
         <v>37257</v>
@@ -8058,7 +8065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -8077,7 +8084,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>51</v>
@@ -8096,7 +8103,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -8125,7 +8132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -8142,7 +8149,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -8169,7 +8176,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8198,7 +8205,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -8217,7 +8224,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>73</v>
@@ -8236,7 +8243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>147</v>
@@ -8253,7 +8260,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37377</v>
@@ -8277,7 +8284,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -8298,7 +8305,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -8315,7 +8322,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>37408</v>
@@ -8342,7 +8349,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>108</v>
@@ -8363,7 +8370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>151</v>
@@ -8380,7 +8387,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>37438</v>
@@ -8405,7 +8412,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>37469</v>
@@ -8432,7 +8439,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8449,7 +8456,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37500</v>
@@ -8476,7 +8483,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>49</v>
@@ -8495,7 +8502,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>37530</v>
@@ -8522,7 +8529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -8541,7 +8548,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>155</v>
@@ -8558,7 +8565,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" ref="A200" si="4">EDATE(A197,1)</f>
         <v>37561</v>
@@ -8587,7 +8594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8604,7 +8611,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>37591</v>
@@ -8631,7 +8638,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>158</v>
@@ -8648,7 +8655,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="49"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -8666,7 +8673,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>37622</v>
@@ -8691,7 +8698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>50</v>
@@ -8710,7 +8717,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8727,7 +8734,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>49</v>
@@ -8746,7 +8753,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8767,7 +8774,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -8786,7 +8793,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -8803,7 +8810,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>103</v>
@@ -8822,7 +8829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>162</v>
@@ -8839,7 +8846,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A205,1)</f>
         <v>37653</v>
@@ -8864,7 +8871,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" ref="A215:A228" si="5">EDATE(A214,1)</f>
         <v>37681</v>
@@ -8891,7 +8898,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>103</v>
@@ -8912,7 +8919,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>37712</v>
@@ -8939,7 +8946,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>72</v>
@@ -8958,7 +8965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>166</v>
@@ -8975,7 +8982,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>37742</v>
@@ -9002,7 +9009,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>51</v>
@@ -9023,7 +9030,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>167</v>
@@ -9040,7 +9047,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>37773</v>
@@ -9065,7 +9072,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -9090,7 +9097,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>72</v>
@@ -9109,7 +9116,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>63</v>
@@ -9128,7 +9135,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>37834</v>
@@ -9153,7 +9160,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -9182,7 +9189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -9201,7 +9208,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -9222,7 +9229,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -9241,7 +9248,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>173</v>
@@ -9258,7 +9265,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A228,1)</f>
         <v>37895</v>
@@ -9287,7 +9294,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>174</v>
@@ -9304,7 +9311,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>37926</v>
@@ -9329,7 +9336,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>37956</v>
@@ -9356,7 +9363,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>49</v>
@@ -9378,7 +9385,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>176</v>
@@ -9398,7 +9405,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>177</v>
       </c>
@@ -9416,7 +9423,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>37987</v>
@@ -9443,7 +9450,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -9466,7 +9473,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>179</v>
@@ -9483,7 +9490,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>180</v>
@@ -9500,7 +9507,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A240,1)</f>
         <v>38018</v>
@@ -9525,7 +9532,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>59</v>
@@ -9544,7 +9551,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>38047</v>
@@ -9569,7 +9576,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>187</v>
@@ -9588,7 +9595,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>38078</v>
@@ -9613,7 +9620,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>59</v>
@@ -9632,7 +9639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>38108</v>
@@ -9657,7 +9664,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>38139</v>
@@ -9684,7 +9691,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9703,7 +9710,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>63</v>
@@ -9722,7 +9729,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>63</v>
@@ -9741,7 +9748,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>72</v>
@@ -9760,7 +9767,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>192</v>
@@ -9777,7 +9784,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A251,1)</f>
         <v>38169</v>
@@ -9798,7 +9805,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A260" si="6">EDATE(A257,1)</f>
         <v>38200</v>
@@ -9823,7 +9830,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -9848,7 +9855,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -9875,7 +9882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9894,7 +9901,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>195</v>
@@ -9911,7 +9918,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>38292</v>
@@ -9936,7 +9943,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>38322</v>
@@ -9963,7 +9970,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>199</v>
@@ -9983,7 +9990,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>200</v>
       </c>
@@ -10001,7 +10008,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>38353</v>
@@ -10028,7 +10035,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>112</v>
@@ -10045,7 +10052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -10062,7 +10069,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>203</v>
@@ -10079,7 +10086,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A267,1)</f>
         <v>38384</v>
@@ -10104,7 +10111,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A283" si="7">EDATE(A271,1)</f>
         <v>38412</v>
@@ -10129,7 +10136,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -10154,7 +10161,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -10179,7 +10186,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -10204,7 +10211,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -10229,7 +10236,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -10254,7 +10261,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>52</v>
@@ -10273,7 +10280,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>38596</v>
@@ -10300,7 +10307,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>211</v>
@@ -10317,7 +10324,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>72</v>
@@ -10336,7 +10343,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>38626</v>
@@ -10361,7 +10368,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -10388,7 +10395,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>213</v>
@@ -10405,7 +10412,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>38687</v>
@@ -10430,7 +10437,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="48" t="s">
         <v>216</v>
       </c>
@@ -10448,7 +10455,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>38718</v>
@@ -10475,7 +10482,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>179</v>
@@ -10492,7 +10499,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -10511,7 +10518,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>219</v>
@@ -10528,7 +10535,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="49"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A287,1)</f>
         <v>38749</v>
@@ -10555,7 +10562,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>220</v>
@@ -10572,7 +10579,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38777</v>
@@ -10599,7 +10606,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>72</v>
@@ -10618,7 +10625,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>222</v>
@@ -10635,7 +10642,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>63</v>
@@ -10654,7 +10661,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>72</v>
@@ -10675,7 +10682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A293,1)</f>
         <v>38808</v>
@@ -10702,7 +10709,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>224</v>
@@ -10719,7 +10726,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>38838</v>
@@ -10748,7 +10755,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10765,7 +10772,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>227</v>
@@ -10782,7 +10789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>38869</v>
@@ -10807,7 +10814,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="8">EDATE(A303,1)</f>
         <v>38899</v>
@@ -10834,7 +10841,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>230</v>
@@ -10851,7 +10858,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>38930</v>
@@ -10876,7 +10883,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -10901,7 +10908,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10926,7 +10933,7 @@
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10951,7 +10958,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>39052</v>
@@ -10976,7 +10983,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>217</v>
       </c>
@@ -10994,7 +11001,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39083</v>
@@ -11021,7 +11028,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>49</v>
@@ -11043,7 +11050,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -11063,7 +11070,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>237</v>
@@ -11083,7 +11090,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>39114</v>
@@ -11108,7 +11115,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A336" si="9">EDATE(A316,1)</f>
         <v>39142</v>
@@ -11133,7 +11140,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>49</v>
@@ -11155,7 +11162,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -11175,7 +11182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>72</v>
@@ -11197,7 +11204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>241</v>
@@ -11214,7 +11221,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>39173</v>
@@ -11241,7 +11248,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -11262,7 +11269,7 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>243</v>
@@ -11279,7 +11286,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39203</v>
@@ -11304,7 +11311,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -11329,7 +11336,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>103</v>
@@ -11350,7 +11357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11367,7 +11374,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>39264</v>
@@ -11392,7 +11399,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11411,7 +11418,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>39295</v>
@@ -11438,7 +11445,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11455,7 +11462,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>39326</v>
@@ -11480,7 +11487,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -11505,7 +11512,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>39387</v>
@@ -11530,7 +11537,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11555,7 +11562,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>253</v>
       </c>
@@ -11573,7 +11580,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39448</v>
@@ -11598,7 +11605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>39479</v>
@@ -11623,7 +11630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>257</v>
@@ -11640,7 +11647,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>39508</v>
@@ -11665,7 +11672,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A356" si="10">EDATE(A341,1)</f>
         <v>39539</v>
@@ -11690,7 +11697,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -11717,7 +11724,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>72</v>
@@ -11736,7 +11743,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>63</v>
@@ -11755,7 +11762,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>263</v>
@@ -11772,7 +11779,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A343,1)</f>
         <v>39600</v>
@@ -11799,7 +11806,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>49</v>
@@ -11818,7 +11825,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>265</v>
@@ -11835,7 +11842,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>39630</v>
@@ -11860,7 +11867,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>266</v>
@@ -11877,7 +11884,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>39661</v>
@@ -11902,7 +11909,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>268</v>
@@ -11919,7 +11926,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>39692</v>
@@ -11944,7 +11951,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -11969,7 +11976,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11996,7 +12003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12015,7 +12022,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>72</v>
@@ -12034,7 +12041,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>72</v>
@@ -12053,7 +12060,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>272</v>
@@ -12070,7 +12077,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A356,1)</f>
         <v>39783</v>
@@ -12095,7 +12102,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="48" t="s">
         <v>254</v>
       </c>
@@ -12113,7 +12120,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>39814</v>
@@ -12140,7 +12147,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>46</v>
@@ -12157,7 +12164,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>275</v>
@@ -12174,7 +12181,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12201,7 +12208,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12220,7 +12227,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -12237,7 +12244,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>277</v>
@@ -12254,7 +12261,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>39873</v>
@@ -12279,7 +12286,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A390" si="11">EDATE(A370,1)</f>
         <v>39904</v>
@@ -12306,7 +12313,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12325,7 +12332,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12342,7 +12349,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>39934</v>
@@ -12367,7 +12374,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12384,7 +12391,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>39965</v>
@@ -12411,7 +12418,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>72</v>
@@ -12430,7 +12437,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>284</v>
@@ -12447,7 +12454,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>39995</v>
@@ -12472,7 +12479,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -12497,7 +12504,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -12524,7 +12531,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>287</v>
@@ -12541,7 +12548,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40087</v>
@@ -12568,7 +12575,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -12587,7 +12594,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -12606,7 +12613,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>103</v>
@@ -12627,7 +12634,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>46</v>
@@ -12644,7 +12651,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>289</v>
@@ -12661,7 +12668,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A383,1)</f>
         <v>40118</v>
@@ -12686,7 +12693,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -12715,7 +12722,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>293</v>
@@ -12732,7 +12739,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>274</v>
       </c>
@@ -12750,7 +12757,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>40179</v>
@@ -12775,7 +12782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>295</v>
@@ -12792,7 +12799,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>40210</v>
@@ -12819,7 +12826,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>49</v>
@@ -12841,7 +12848,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>46</v>
@@ -12858,7 +12865,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>111</v>
@@ -12875,7 +12882,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40238</v>
@@ -12902,7 +12909,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>72</v>
@@ -12921,7 +12928,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>297</v>
@@ -12938,7 +12945,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>40269</v>
@@ -12963,7 +12970,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A410" si="12">EDATE(A402,1)</f>
         <v>40299</v>
@@ -12988,7 +12995,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -13007,7 +13014,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>40330</v>
@@ -13032,7 +13039,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -13057,7 +13064,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -13084,7 +13091,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>302</v>
@@ -13101,7 +13108,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>40422</v>
@@ -13126,7 +13133,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -13151,7 +13158,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40483</v>
@@ -13178,7 +13185,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>49</v>
@@ -13197,7 +13204,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>49</v>
@@ -13216,7 +13223,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>305</v>
@@ -13233,7 +13240,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>40513</v>
@@ -13260,7 +13267,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>307</v>
@@ -13280,7 +13287,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>308</v>
       </c>
@@ -13298,7 +13305,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>40544</v>
@@ -13325,7 +13332,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>310</v>
@@ -13342,7 +13349,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>40575</v>
@@ -13367,7 +13374,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A435" si="13">EDATE(A420,1)</f>
         <v>40603</v>
@@ -13392,7 +13399,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -13411,7 +13418,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>72</v>
@@ -13430,7 +13437,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>312</v>
@@ -13447,7 +13454,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A421,1)</f>
         <v>40634</v>
@@ -13472,7 +13479,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -13499,7 +13506,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>112</v>
@@ -13516,7 +13523,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>49</v>
@@ -13535,7 +13542,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>315</v>
@@ -13552,7 +13559,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>40695</v>
@@ -13577,7 +13584,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>49</v>
@@ -13599,7 +13606,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40725</v>
@@ -13624,7 +13631,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13643,7 +13650,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>40756</v>
@@ -13668,7 +13675,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -13693,7 +13700,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>72</v>
@@ -13712,7 +13719,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40817</v>
@@ -13737,7 +13744,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>49</v>
@@ -13756,7 +13763,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>40848</v>
@@ -13781,7 +13788,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>40878</v>
@@ -13806,7 +13813,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -13828,7 +13835,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>309</v>
       </c>
@@ -13846,7 +13853,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A440,1)</f>
         <v>40909</v>
@@ -13871,7 +13878,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13896,7 +13903,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" ref="A445:A452" si="14">EDATE(A444,1)</f>
         <v>40969</v>
@@ -13921,7 +13928,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -13938,7 +13945,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>327</v>
@@ -13955,7 +13962,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41000</v>
@@ -13980,7 +13987,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -14005,7 +14012,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -14030,7 +14037,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -14055,7 +14062,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -14080,7 +14087,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>41153</v>
@@ -14107,7 +14114,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>49</v>
@@ -14126,7 +14133,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14145,7 +14152,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14164,7 +14171,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>335</v>
@@ -14181,7 +14188,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A453,1)</f>
         <v>41183</v>
@@ -14208,7 +14215,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>158</v>
@@ -14225,7 +14232,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A458,1)</f>
         <v>41214</v>
@@ -14248,7 +14255,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14267,7 +14274,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>336</v>
@@ -14284,7 +14291,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41244</v>
@@ -14309,7 +14316,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="48" t="s">
         <v>324</v>
       </c>
@@ -14327,7 +14334,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41275</v>
@@ -14352,7 +14359,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>41306</v>
@@ -14377,7 +14384,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" ref="A467" si="15">EDATE(A466,1)</f>
         <v>41334</v>
@@ -14404,7 +14411,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14423,7 +14430,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14440,7 +14447,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>312</v>
@@ -14457,7 +14464,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A467,1)</f>
         <v>41365</v>
@@ -14482,7 +14489,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>231</v>
@@ -14499,7 +14506,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -14524,7 +14531,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -14543,7 +14550,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14562,7 +14569,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>72</v>
@@ -14581,7 +14588,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>344</v>
@@ -14600,7 +14607,7 @@
       </c>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f>EDATE(A473,1)</f>
         <v>41426</v>
@@ -14627,7 +14634,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>49</v>
@@ -14646,7 +14653,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>49</v>
@@ -14665,7 +14672,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>348</v>
@@ -14682,7 +14689,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>41456</v>
@@ -14707,7 +14714,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -14734,7 +14741,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="15" t="s">
         <v>72</v>
@@ -14753,7 +14760,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="15" t="s">
         <v>49</v>
@@ -14772,7 +14779,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="15" t="s">
         <v>49</v>
@@ -14791,7 +14798,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="15" t="s">
         <v>351</v>
@@ -14808,7 +14815,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A483,1)</f>
         <v>41518</v>
@@ -14835,7 +14842,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>55</v>
@@ -14854,7 +14861,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>355</v>
@@ -14871,7 +14878,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A488,1)</f>
         <v>41548</v>
@@ -14898,7 +14905,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>243</v>
@@ -14915,7 +14922,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>41579</v>
@@ -14940,7 +14947,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>41609</v>
@@ -14967,7 +14974,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -14989,7 +14996,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>72</v>
@@ -15011,7 +15018,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>358</v>
@@ -15031,7 +15038,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>339</v>
       </c>
@@ -15049,7 +15056,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>41640</v>
@@ -15076,7 +15083,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>112</v>
@@ -15093,7 +15100,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>361</v>
@@ -15110,7 +15117,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15128,16 +15135,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H502" s="39">
-        <v>1</v>
-      </c>
+      <c r="H502" s="39"/>
       <c r="I502" s="9"/>
-      <c r="J502" s="11"/>
+      <c r="J502" s="39">
+        <v>1</v>
+      </c>
       <c r="K502" s="49">
         <v>44981</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>46</v>
@@ -15149,12 +15156,12 @@
       <c r="G503" s="13"/>
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
-      <c r="J503" s="11"/>
+      <c r="J503" s="39"/>
       <c r="K503" s="20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>363</v>
@@ -15168,10 +15175,10 @@
       <c r="G504" s="13"/>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
-      <c r="J504" s="11"/>
+      <c r="J504" s="39"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>41699</v>
@@ -15189,16 +15196,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H505" s="39">
-        <v>1</v>
-      </c>
+      <c r="H505" s="39"/>
       <c r="I505" s="9"/>
-      <c r="J505" s="11"/>
+      <c r="J505" s="39">
+        <v>1</v>
+      </c>
       <c r="K505" s="49">
         <v>45003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>364</v>
@@ -15212,10 +15219,10 @@
       <c r="G506" s="13"/>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
-      <c r="J506" s="11"/>
+      <c r="J506" s="39"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15237,10 +15244,10 @@
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
-      <c r="J507" s="11"/>
+      <c r="J507" s="39"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A526" si="16">EDATE(A507,1)</f>
         <v>41760</v>
@@ -15258,16 +15265,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H508" s="39">
-        <v>1</v>
-      </c>
+      <c r="H508" s="39"/>
       <c r="I508" s="9"/>
-      <c r="J508" s="11"/>
+      <c r="J508" s="39">
+        <v>1</v>
+      </c>
       <c r="K508" s="49">
         <v>45061</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -15277,16 +15284,16 @@
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
       <c r="G509" s="13"/>
-      <c r="H509" s="39">
-        <v>1</v>
-      </c>
+      <c r="H509" s="39"/>
       <c r="I509" s="9"/>
-      <c r="J509" s="11"/>
+      <c r="J509" s="39">
+        <v>1</v>
+      </c>
       <c r="K509" s="49">
         <v>45048</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>72</v>
@@ -15296,16 +15303,16 @@
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
       <c r="G510" s="13"/>
-      <c r="H510" s="39">
+      <c r="H510" s="39"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="39">
         <v>2</v>
       </c>
-      <c r="I510" s="9"/>
-      <c r="J510" s="11"/>
       <c r="K510" s="49" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>49</v>
@@ -15315,16 +15322,16 @@
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13"/>
-      <c r="H511" s="39">
-        <v>1</v>
-      </c>
+      <c r="H511" s="39"/>
       <c r="I511" s="9"/>
-      <c r="J511" s="11"/>
+      <c r="J511" s="39">
+        <v>1</v>
+      </c>
       <c r="K511" s="49">
         <v>45072</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15334,16 +15341,16 @@
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13"/>
-      <c r="H512" s="39">
-        <v>1</v>
-      </c>
+      <c r="H512" s="39"/>
       <c r="I512" s="9"/>
-      <c r="J512" s="11"/>
+      <c r="J512" s="39">
+        <v>1</v>
+      </c>
       <c r="K512" s="49">
         <v>45076</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -15353,16 +15360,16 @@
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
       <c r="G513" s="13"/>
-      <c r="H513" s="39">
-        <v>1</v>
-      </c>
+      <c r="H513" s="39"/>
       <c r="I513" s="9"/>
-      <c r="J513" s="11"/>
+      <c r="J513" s="39">
+        <v>1</v>
+      </c>
       <c r="K513" s="49">
         <v>45079</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>368</v>
@@ -15379,7 +15386,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="49"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f>EDATE(A508,1)</f>
         <v>41791</v>
@@ -15406,7 +15413,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>51</v>
@@ -15427,7 +15434,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>63</v>
@@ -15446,7 +15453,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>367</v>
@@ -15463,7 +15470,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>72</v>
@@ -15484,7 +15491,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A515,1)</f>
         <v>41821</v>
@@ -15509,7 +15516,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>41852</v>
@@ -15538,7 +15545,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15557,7 +15564,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>372</v>
@@ -15574,7 +15581,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A521,1)</f>
         <v>41883</v>
@@ -15599,7 +15606,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15624,7 +15631,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -15655,7 +15662,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -15674,7 +15681,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -15693,7 +15700,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>376</v>
@@ -15710,7 +15717,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A526,1)</f>
         <v>41974</v>
@@ -15735,7 +15742,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="48" t="s">
         <v>360</v>
       </c>
@@ -15753,7 +15760,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42005</v>
@@ -15780,7 +15787,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>49</v>
@@ -15801,7 +15808,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>46</v>
@@ -15818,7 +15825,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>380</v>
@@ -15835,7 +15842,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42036</v>
@@ -15860,7 +15867,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A561" si="17">EDATE(A536,1)</f>
         <v>42064</v>
@@ -15887,7 +15894,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15906,7 +15913,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15925,7 +15932,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>46</v>
@@ -15942,7 +15949,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>384</v>
@@ -15962,7 +15969,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f>EDATE(A537,1)</f>
         <v>42095</v>
@@ -15987,7 +15994,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f>EDATE(A542,1)</f>
         <v>42125</v>
@@ -16014,7 +16021,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16033,7 +16040,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>388</v>
@@ -16050,7 +16057,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f>EDATE(A543,1)</f>
         <v>42156</v>
@@ -16079,7 +16086,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>72</v>
@@ -16098,7 +16105,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -16115,7 +16122,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>49</v>
@@ -16134,7 +16141,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>391</v>
@@ -16151,7 +16158,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f>EDATE(A546,1)</f>
         <v>42186</v>
@@ -16178,7 +16185,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>392</v>
@@ -16195,7 +16202,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>42217</v>
@@ -16224,7 +16231,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>72</v>
@@ -16243,7 +16250,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>393</v>
@@ -16260,7 +16267,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f>EDATE(A553,1)</f>
         <v>42248</v>
@@ -16285,7 +16292,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -16312,7 +16319,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -16331,7 +16338,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>397</v>
@@ -16348,7 +16355,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42309</v>
@@ -16373,7 +16380,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16398,7 +16405,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="48" t="s">
         <v>379</v>
       </c>
@@ -16416,7 +16423,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A561,1)</f>
         <v>42370</v>
@@ -16441,7 +16448,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f>EDATE(A563,1)</f>
         <v>42401</v>
@@ -16466,7 +16473,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A585" si="18">EDATE(A564,1)</f>
         <v>42430</v>
@@ -16491,7 +16498,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -16516,7 +16523,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>388</v>
@@ -16533,7 +16540,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f>EDATE(A566,1)</f>
         <v>42491</v>
@@ -16560,7 +16567,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -16579,7 +16586,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>406</v>
@@ -16596,7 +16603,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <f>EDATE(A568,1)</f>
         <v>42522</v>
@@ -16623,7 +16630,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>407</v>
@@ -16640,7 +16647,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>42552</v>
@@ -16667,7 +16674,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>72</v>
@@ -16686,7 +16693,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>416</v>
@@ -16703,7 +16710,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>42583</v>
@@ -16730,7 +16737,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>51</v>
@@ -16749,7 +16756,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>76</v>
@@ -16766,7 +16773,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>42614</v>
@@ -16791,7 +16798,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -16808,7 +16815,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>108</v>
@@ -16829,7 +16836,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>408</v>
@@ -16846,7 +16853,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f>EDATE(A579,1)</f>
         <v>42644</v>
@@ -16871,7 +16878,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -16896,7 +16903,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -16921,7 +16928,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="48" t="s">
         <v>401</v>
       </c>
@@ -16939,7 +16946,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>42736</v>
@@ -16964,7 +16971,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <f>EDATE(A587,1)</f>
         <v>42767</v>
@@ -16989,7 +16996,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>63</v>
@@ -17008,7 +17015,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>42795</v>
@@ -17035,7 +17042,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>49</v>
@@ -17054,7 +17061,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>421</v>
@@ -17071,7 +17078,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17098,7 +17105,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>49</v>
@@ -17117,7 +17124,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>422</v>
@@ -17134,7 +17141,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42856</v>
@@ -17161,7 +17168,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="15" t="s">
         <v>423</v>
@@ -17178,7 +17185,7 @@
       <c r="J597" s="12"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f>EDATE(A596,1)</f>
         <v>42887</v>
@@ -17207,7 +17214,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f t="shared" ref="A599:A606" si="19">EDATE(A598,1)</f>
         <v>42917</v>
@@ -17234,7 +17241,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -17261,7 +17268,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>426</v>
@@ -17278,7 +17285,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A600,1)</f>
         <v>42979</v>
@@ -17305,7 +17312,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>427</v>
@@ -17322,7 +17329,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43009</v>
@@ -17347,7 +17354,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17368,7 +17375,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -17395,7 +17402,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="48" t="s">
         <v>419</v>
       </c>
@@ -17413,7 +17420,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>43101</v>
@@ -17434,7 +17441,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f>EDATE(A608,1)</f>
         <v>43132</v>
@@ -17459,7 +17466,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>112</v>
@@ -17476,7 +17483,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -17501,7 +17508,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>50</v>
@@ -17520,7 +17527,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A611,1)</f>
         <v>43191</v>
@@ -17541,7 +17548,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" ref="A614:A622" si="20">EDATE(A613,1)</f>
         <v>43221</v>
@@ -17568,7 +17575,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>72</v>
@@ -17587,7 +17594,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -17606,7 +17613,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f>EDATE(A614,1)</f>
         <v>43252</v>
@@ -17633,7 +17640,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>437</v>
@@ -17650,7 +17657,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <f>EDATE(A617,1)</f>
         <v>43282</v>
@@ -17677,7 +17684,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>438</v>
@@ -17694,7 +17701,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <f>EDATE(A619,1)</f>
         <v>43313</v>
@@ -17719,7 +17726,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -17746,7 +17753,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>440</v>
@@ -17763,7 +17770,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f>EDATE(A622,1)</f>
         <v>43374</v>
@@ -17786,7 +17793,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="57" t="s">
         <v>442</v>
@@ -17803,7 +17810,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="56"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>43405</v>
@@ -17828,7 +17835,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A626,1)</f>
         <v>43435</v>
@@ -17853,7 +17860,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="48" t="s">
         <v>433</v>
       </c>
@@ -17871,7 +17878,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -17892,7 +17899,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <f>EDATE(A629,1)</f>
         <v>43497</v>
@@ -17917,7 +17924,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f t="shared" ref="A631:A645" si="21">EDATE(A630,1)</f>
         <v>43525</v>
@@ -17942,7 +17949,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -17963,7 +17970,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>43586</v>
@@ -17988,7 +17995,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>72</v>
@@ -18010,7 +18017,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>450</v>
@@ -18030,7 +18037,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43617</v>
@@ -18057,7 +18064,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -18084,7 +18091,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -18106,7 +18113,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <f>EDATE(A637,1)</f>
         <v>43678</v>
@@ -18133,7 +18140,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>49</v>
@@ -18155,7 +18162,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <f>EDATE(A639,1)</f>
         <v>43709</v>
@@ -18182,7 +18189,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>50</v>
@@ -18204,7 +18211,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <f>EDATE(A641,1)</f>
         <v>43739</v>
@@ -18225,7 +18232,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -18246,7 +18253,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -18267,7 +18274,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="48" t="s">
         <v>434</v>
       </c>
@@ -18285,7 +18292,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f>EDATE(A645,1)</f>
         <v>43831</v>
@@ -18312,7 +18319,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>454</v>
@@ -18329,7 +18336,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>179</v>
@@ -18346,7 +18353,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>72</v>
@@ -18365,7 +18372,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43862</v>
@@ -18386,7 +18393,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" ref="A652:A660" si="22">EDATE(A651,1)</f>
         <v>43891</v>
@@ -18407,7 +18414,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -18428,7 +18435,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -18449,7 +18456,7 @@
       <c r="J654" s="12"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -18470,7 +18477,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -18491,7 +18498,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -18512,7 +18519,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -18533,7 +18540,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -18554,7 +18561,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -18581,7 +18588,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>49</v>
@@ -18600,7 +18607,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>49</v>
@@ -18619,7 +18626,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>49</v>
@@ -18638,7 +18645,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>44166</v>
@@ -18663,7 +18670,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="48" t="s">
         <v>453</v>
       </c>
@@ -18681,7 +18688,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>44197</v>
@@ -18706,7 +18713,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <f>EDATE(A666,1)</f>
         <v>44228</v>
@@ -18727,7 +18734,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <f t="shared" ref="A668:A675" si="23">EDATE(A667,1)</f>
         <v>44256</v>
@@ -18748,7 +18755,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -18769,7 +18776,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -18790,7 +18797,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -18811,7 +18818,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -18832,7 +18839,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -18859,7 +18866,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -18880,7 +18887,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -18905,7 +18912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>462</v>
@@ -18924,7 +18931,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>73</v>
@@ -18943,7 +18950,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A675,1)</f>
         <v>44501</v>
@@ -18970,7 +18977,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="58" t="s">
         <v>49</v>
@@ -18989,7 +18996,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44531</v>
@@ -19016,7 +19023,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="48" t="s">
         <v>460</v>
       </c>
@@ -19034,7 +19041,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <f>EDATE(A680,1)</f>
         <v>44562</v>
@@ -19061,7 +19068,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="58" t="s">
         <v>72</v>
@@ -19080,7 +19087,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="58" t="s">
         <v>49</v>
@@ -19099,7 +19106,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <f>EDATE(A682,1)</f>
         <v>44593</v>
@@ -19124,7 +19131,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="58" t="s">
         <v>49</v>
@@ -19143,7 +19150,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <f>EDATE(A685,1)</f>
         <v>44621</v>
@@ -19170,7 +19177,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f t="shared" ref="A688:A701" si="24">EDATE(A687,1)</f>
         <v>44652</v>
@@ -19197,7 +19204,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="58" t="s">
         <v>50</v>
@@ -19216,7 +19223,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <f>EDATE(A688,1)</f>
         <v>44682</v>
@@ -19237,7 +19244,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <f t="shared" si="24"/>
         <v>44713</v>
@@ -19264,7 +19271,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>50</v>
@@ -19283,7 +19290,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>49</v>
@@ -19302,7 +19309,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>49</v>
@@ -19321,7 +19328,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>49</v>
@@ -19340,7 +19347,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>49</v>
@@ -19359,7 +19366,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <f>EDATE(A691,1)</f>
         <v>44743</v>
@@ -19386,7 +19393,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="58" t="s">
         <v>72</v>
@@ -19405,7 +19412,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
         <v>49</v>
@@ -19424,7 +19431,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f>EDATE(A697,1)</f>
         <v>44774</v>
@@ -19445,7 +19452,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -19472,7 +19479,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="58" t="s">
         <v>72</v>
@@ -19491,7 +19498,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="58" t="s">
         <v>73</v>
@@ -19510,7 +19517,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <f>EDATE(A701,1)</f>
         <v>44835</v>
@@ -19537,7 +19544,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>44866</v>
       </c>
@@ -19561,7 +19568,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="10" t="s">
         <v>50</v>
@@ -19583,7 +19590,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>44896</v>
       </c>
@@ -19603,7 +19610,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="48" t="s">
         <v>474</v>
       </c>
@@ -19621,7 +19628,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>44927</v>
       </c>
@@ -19645,7 +19652,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>44958</v>
       </c>
@@ -19665,7 +19672,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44986</v>
       </c>
@@ -19685,47 +19692,57 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>45017</v>
       </c>
       <c r="B712" s="58"/>
-      <c r="C712" s="13"/>
+      <c r="C712" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G712" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H712" s="39"/>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>45047</v>
       </c>
-      <c r="B713" s="58"/>
-      <c r="C713" s="13"/>
+      <c r="B713" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="C713" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D713" s="39"/>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G713" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="20"/>
-    </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K713" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>45078</v>
       </c>
-      <c r="B714" s="58"/>
+      <c r="B714" s="58" t="s">
+        <v>49</v>
+      </c>
       <c r="C714" s="13"/>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
@@ -19734,12 +19751,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H714" s="39"/>
+      <c r="H714" s="39">
+        <v>1</v>
+      </c>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20"/>
-    </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K714" s="52">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="58"/>
       <c r="C715" s="13"/>
@@ -19755,7 +19776,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="58"/>
       <c r="C716" s="13"/>
@@ -19771,7 +19792,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="58"/>
       <c r="C717" s="13"/>
@@ -19787,7 +19808,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="58"/>
       <c r="C718" s="13"/>
@@ -19803,7 +19824,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="41"/>
       <c r="B719" s="10"/>
       <c r="C719" s="42"/>
@@ -19834,10 +19855,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19860,22 +19881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -19892,7 +19913,7 @@
       </c>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -19905,7 +19926,7 @@
       <c r="F2" s="74"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -19920,7 +19941,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="30"/>
@@ -19929,7 +19950,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="31"/>
@@ -19938,12 +19959,12 @@
       <c r="F5" s="8"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -19954,7 +19975,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="60">
         <v>44806</v>
       </c>
@@ -19965,7 +19986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <v>44858</v>
       </c>
@@ -19976,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="60">
         <v>44872</v>
       </c>
@@ -19987,7 +20008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="60">
         <v>44872</v>
       </c>
@@ -19998,7 +20019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="60">
         <v>44881</v>
       </c>
@@ -20009,7 +20030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="60">
         <v>44965</v>
       </c>
@@ -20020,7 +20041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="60">
         <v>44965</v>
       </c>
@@ -20031,7 +20052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="60">
         <v>44971</v>
       </c>
@@ -20042,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="60">
         <v>44993</v>
       </c>
@@ -20053,7 +20074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="60">
         <v>44993</v>
       </c>
@@ -20064,7 +20085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="60">
         <v>44993</v>
       </c>
@@ -20075,7 +20096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="60">
         <v>45034</v>
       </c>
@@ -20086,7 +20107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="59" t="s">
         <v>485</v>
@@ -20106,10 +20127,10 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20118,7 +20139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20126,21 +20147,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -20153,7 +20174,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20182,7 +20203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.52900000000000003</v>
       </c>
@@ -20212,17 +20233,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20243,7 +20264,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20270,7 +20291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20296,7 +20317,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20322,7 +20343,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20348,7 +20369,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20374,7 +20395,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20400,7 +20421,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20426,7 +20447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20452,7 +20473,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20472,7 +20493,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20492,7 +20513,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20512,7 +20533,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20533,7 +20554,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20554,7 +20575,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20575,7 +20596,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20596,7 +20617,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20617,7 +20638,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20638,7 +20659,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20659,7 +20680,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20680,7 +20701,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20701,7 +20722,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20722,7 +20743,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20743,7 +20764,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20764,7 +20785,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20785,7 +20806,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20806,7 +20827,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20827,7 +20848,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20848,7 +20869,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20869,7 +20890,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20890,7 +20911,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20911,7 +20932,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20932,7 +20953,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20941,7 +20962,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20950,7 +20971,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20959,7 +20980,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20968,7 +20989,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20977,7 +20998,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20986,7 +21007,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20995,7 +21016,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21004,7 +21025,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21013,7 +21034,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21022,7 +21043,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21031,7 +21052,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21040,7 +21061,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21049,7 +21070,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21058,7 +21079,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21067,7 +21088,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21076,7 +21097,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21085,7 +21106,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21094,7 +21115,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21103,7 +21124,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21112,7 +21133,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21121,7 +21142,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21130,7 +21151,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21139,7 +21160,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21148,7 +21169,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21157,7 +21178,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21166,7 +21187,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21175,7 +21196,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21184,7 +21205,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21193,7 +21214,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/OJT/NEW DONE/TULIAO, FLORDELIZA M..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A9CA7-BC57-42D4-B547-51D2D2F7FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFD2AA-F0D1-41AA-B69B-8EBEF67EA0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4357,9 +4357,9 @@
   <dimension ref="A2:K719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A707" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A710" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="K715" sqref="K715"/>
+      <selection pane="bottomLeft" activeCell="B716" sqref="B716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4534,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.279</v>
+        <v>9.2789999999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19762,7 +19762,9 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
-      <c r="B715" s="58"/>
+      <c r="B715" s="58" t="s">
+        <v>49</v>
+      </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
@@ -19771,10 +19773,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H715" s="39"/>
+      <c r="H715" s="39">
+        <v>1</v>
+      </c>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="52">
+        <v>45100</v>
+      </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
